--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20025" windowHeight="7905"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20025" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Combustível</t>
   </si>
@@ -70,8 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="172" formatCode="dd/mm\ ddd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -90,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -272,11 +273,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -287,18 +392,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,24 +720,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:P32"/>
+  <dimension ref="C4:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="24">
+        <v>44733</v>
+      </c>
+      <c r="D7" s="19">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>350</v>
+      </c>
+      <c r="L7" s="5">
+        <v>491.06</v>
+      </c>
+      <c r="M7" s="5">
+        <v>155.9</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4010.68</v>
+      </c>
+      <c r="O7" s="5">
+        <v>12</v>
+      </c>
+      <c r="P7" s="5">
+        <v>856.6</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>7695</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="24">
+        <v>44739</v>
+      </c>
+      <c r="D8" s="19">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>273.32</v>
+      </c>
+      <c r="M8" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>246.65</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="24">
+        <v>44740</v>
+      </c>
+      <c r="D9" s="19">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>40</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2864.43</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>2779.2</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="24">
+        <v>44743</v>
+      </c>
+      <c r="D10" s="19">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>25</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="24">
+        <v>44746</v>
+      </c>
+      <c r="D11" s="19">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>578.72</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="24">
+        <v>44747</v>
+      </c>
+      <c r="D12" s="19">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
+        <v>20</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="24">
+        <v>44748</v>
+      </c>
+      <c r="D13" s="19">
+        <v>130</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="24">
+        <v>44751</v>
+      </c>
+      <c r="D14" s="19">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>36</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <v>48.19</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="24"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="24"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="24"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="24"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="24"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="24"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="24"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="20"/>
+      <c r="D30" s="21">
+        <f>IF(SUM(D7:D29)&gt;0, SUM(D7:D29),"")</f>
+        <v>800</v>
+      </c>
+      <c r="E30" s="8">
+        <f>IF(SUM(E7:E29)&gt;0, SUM(E7:E29),"")</f>
+        <v>52</v>
+      </c>
+      <c r="F30" s="8">
+        <f>IF(SUM(F7:F29)&gt;0, SUM(F7:F29),"")</f>
+        <v>67.5</v>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f>IF(SUM(G7:G29)&gt;0, SUM(G7:G29),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f>IF(SUM(H7:H29)&gt;0, SUM(H7:H29),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f>IF(SUM(I7:I29)&gt;0, SUM(I7:I29),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="8">
+        <f>IF(SUM(J7:J29)&gt;0, SUM(J7:J29),"")</f>
+        <v>254.07999999999998</v>
+      </c>
+      <c r="K30" s="8">
+        <f>IF(SUM(K7:K29)&gt;0, SUM(K7:K29),"")</f>
+        <v>350</v>
+      </c>
+      <c r="L30" s="8">
+        <f>IF(SUM(L7:L29)&gt;0, SUM(L7:L29),"")</f>
+        <v>767.38</v>
+      </c>
+      <c r="M30" s="8">
+        <f>IF(SUM(M7:M29)&gt;0, SUM(M7:M29),"")</f>
+        <v>3939.1499999999996</v>
+      </c>
+      <c r="N30" s="8">
+        <f>IF(SUM(N7:N29)&gt;0, SUM(N7:N29),"")</f>
+        <v>4010.68</v>
+      </c>
+      <c r="O30" s="8">
+        <f>IF(SUM(O7:O29)&gt;0, SUM(O7:O29),"")</f>
+        <v>3185.21</v>
+      </c>
+      <c r="P30" s="11">
+        <f>IF(SUM(P7:P29)&gt;0, SUM(P7:P29),"")</f>
+        <v>856.6</v>
+      </c>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="15">
+        <f>SUM(D30:P30)</f>
+        <v>14282.6</v>
+      </c>
+      <c r="Q31" s="13">
+        <f>IF(SUM(Q7:Q29)&gt;0, SUM(Q7:Q29),"")</f>
+        <v>7695</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="9">
+        <f>SUM(P31:Q31)</f>
+        <v>21977.599999999999</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:16" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,102 +1438,95 @@
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
-        <v>70</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="str">
+        <f>IF(Plan1!C7="","",CONCATENATE(PROPER(TEXT(Plan1!C7,"ddd dd/mm")),"   ",TEXT(Plan1!D7,"R$ #.##0,00")))</f>
+        <v>Ter 21/06   R$ 70,00</v>
+      </c>
+      <c r="D7" s="5">
         <v>33</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>34</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="J6" s="5">
-        <v>350</v>
-      </c>
-      <c r="K6" s="5">
-        <v>491.06</v>
-      </c>
-      <c r="L6" s="5">
-        <v>155.9</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4010.68</v>
-      </c>
-      <c r="N6" s="5">
-        <v>12</v>
-      </c>
-      <c r="O6" s="5">
-        <v>856.6</v>
-      </c>
-      <c r="P6" s="6">
-        <v>7695</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
-        <v>100</v>
-      </c>
-      <c r="D7" s="5">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5">
-        <v>33.5</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5">
-        <v>5.99</v>
-      </c>
-      <c r="J7" s="5"/>
+        <v>6.9</v>
+      </c>
+      <c r="J7" s="5">
+        <v>350</v>
+      </c>
       <c r="K7" s="5">
-        <v>273.32</v>
+        <v>491.06</v>
       </c>
       <c r="L7" s="5">
-        <v>62.5</v>
-      </c>
-      <c r="M7" s="5"/>
+        <v>155.9</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4010.68</v>
+      </c>
       <c r="N7" s="5">
-        <v>246.65</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="O7" s="5">
+        <v>856.6</v>
+      </c>
+      <c r="P7" s="6">
+        <v>7695</v>
+      </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4" t="str">
+        <f>IF(Plan1!C8="","",CONCATENATE(PROPER(TEXT(Plan1!C8,"ddd dd/mm")),"   ",TEXT(Plan1!D8,"R$ #.##0,00")))</f>
+        <v>Seg 27/06   R$ 100,00</v>
+      </c>
+      <c r="D8" s="5">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5">
+        <v>33.5</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <v>40</v>
+        <v>5.99</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5">
-        <v>3</v>
+        <v>273.32</v>
       </c>
       <c r="L8" s="5">
-        <v>2864.43</v>
+        <v>62.5</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5">
-        <v>2779.2</v>
+        <v>246.65</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
-        <v>100</v>
+      <c r="C9" s="4" t="str">
+        <f>IF(Plan1!C9="","",CONCATENATE(PROPER(TEXT(Plan1!C9,"ddd dd/mm")),"   ",TEXT(Plan1!D9,"R$ #.##0,00")))</f>
+        <v>Ter 28/06   R$ 100,00</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -765,23 +1534,26 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>3</v>
+      </c>
       <c r="L9" s="5">
-        <v>257.60000000000002</v>
+        <v>2864.43</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5">
-        <v>147.36000000000001</v>
+        <v>2779.2</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
-        <v>100</v>
+      <c r="C10" s="4" t="str">
+        <f>IF(Plan1!C10="","",CONCATENATE(PROPER(TEXT(Plan1!C10,"ddd dd/mm")),"   ",TEXT(Plan1!D10,"R$ #.##0,00")))</f>
+        <v>Sex 01/07   R$ 100,00</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -789,21 +1561,24 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5">
-        <v>578.72</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <v>147.36000000000001</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
-        <v>100</v>
+      <c r="C11" s="4" t="str">
+        <f>IF(Plan1!C11="","",CONCATENATE(PROPER(TEXT(Plan1!C11,"ddd dd/mm")),"   ",TEXT(Plan1!D11,"R$ #.##0,00")))</f>
+        <v>Seg 04/07   R$ 100,00</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -811,12 +1586,12 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <v>17.5</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5">
-        <v>20</v>
+        <v>578.72</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -824,8 +1599,9 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="4">
-        <v>130</v>
+      <c r="C12" s="4" t="str">
+        <f>IF(Plan1!C12="","",CONCATENATE(PROPER(TEXT(Plan1!C12,"ddd dd/mm")),"   ",TEXT(Plan1!D12,"R$ #.##0,00")))</f>
+        <v>Ter 05/07   R$ 100,00</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -833,25 +1609,30 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
-        <v>69.5</v>
+        <v>17.5</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>20</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="str">
+        <f>IF(Plan1!C13="","",CONCATENATE(PROPER(TEXT(Plan1!C13,"ddd dd/mm")),"   ",TEXT(Plan1!D13,"R$ #.##0,00")))</f>
+        <v>Qua 06/07   R$ 130,00</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
-        <v>36</v>
+        <v>69.5</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -862,14 +1643,17 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="str">
+        <f>IF(Plan1!C14="","",CONCATENATE(PROPER(TEXT(Plan1!C14,"ddd dd/mm")),"   ",TEXT(Plan1!D14,"R$ #.##0,00")))</f>
+        <v>Sáb 09/07   R$ 100,00</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
-        <v>48.19</v>
+        <v>36</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -880,13 +1664,18 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="str">
+        <f>IF(Plan1!C15="","",CONCATENATE(PROPER(TEXT(Plan1!C15,"ddd dd/mm")),"   ",TEXT(Plan1!D15,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <v>48.19</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -896,7 +1685,10 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="str">
+        <f>IF(Plan1!C16="","",CONCATENATE(PROPER(TEXT(Plan1!C16,"ddd dd/mm")),"   ",TEXT(Plan1!D16,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -912,7 +1704,10 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="str">
+        <f>IF(Plan1!C17="","",CONCATENATE(PROPER(TEXT(Plan1!C17,"ddd dd/mm")),"   ",TEXT(Plan1!D17,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -928,7 +1723,10 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="str">
+        <f>IF(Plan1!C18="","",CONCATENATE(PROPER(TEXT(Plan1!C18,"ddd dd/mm")),"   ",TEXT(Plan1!D18,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -944,7 +1742,10 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="str">
+        <f>IF(Plan1!C19="","",CONCATENATE(PROPER(TEXT(Plan1!C19,"ddd dd/mm")),"   ",TEXT(Plan1!D19,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -960,7 +1761,10 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="str">
+        <f>IF(Plan1!C20="","",CONCATENATE(PROPER(TEXT(Plan1!C20,"ddd dd/mm")),"   ",TEXT(Plan1!D20,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -976,7 +1780,10 @@
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="str">
+        <f>IF(Plan1!C21="","",CONCATENATE(PROPER(TEXT(Plan1!C21,"ddd dd/mm")),"   ",TEXT(Plan1!D21,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -992,7 +1799,10 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="str">
+        <f>IF(Plan1!C22="","",CONCATENATE(PROPER(TEXT(Plan1!C22,"ddd dd/mm")),"   ",TEXT(Plan1!D22,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1008,7 +1818,10 @@
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="str">
+        <f>IF(Plan1!C23="","",CONCATENATE(PROPER(TEXT(Plan1!C23,"ddd dd/mm")),"   ",TEXT(Plan1!D23,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1024,7 +1837,10 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="str">
+        <f>IF(Plan1!C24="","",CONCATENATE(PROPER(TEXT(Plan1!C24,"ddd dd/mm")),"   ",TEXT(Plan1!D24,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1040,7 +1856,10 @@
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="str">
+        <f>IF(Plan1!C25="","",CONCATENATE(PROPER(TEXT(Plan1!C25,"ddd dd/mm")),"   ",TEXT(Plan1!D25,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1056,7 +1875,10 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="str">
+        <f>IF(Plan1!C26="","",CONCATENATE(PROPER(TEXT(Plan1!C26,"ddd dd/mm")),"   ",TEXT(Plan1!D26,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1072,7 +1894,10 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="str">
+        <f>IF(Plan1!C27="","",CONCATENATE(PROPER(TEXT(Plan1!C27,"ddd dd/mm")),"   ",TEXT(Plan1!D27,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1088,7 +1913,10 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="str">
+        <f>IF(Plan1!C28="","",CONCATENATE(PROPER(TEXT(Plan1!C28,"ddd dd/mm")),"   ",TEXT(Plan1!D28,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1103,98 +1931,104 @@
       <c r="O28" s="5"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="7">
-        <f>IF(SUM(C6:C28)&gt;0, SUM(C6:C28),"")</f>
-        <v>700</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" ref="D29:P29" si="0">IF(SUM(D6:D28)&gt;0, SUM(D6:D28),"")</f>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="str">
+        <f>IF(Plan1!C29="","",CONCATENATE(PROPER(TEXT(Plan1!C29,"ddd dd/mm")),"   ",TEXT(Plan1!D29,"R$ #.##0,00")))</f>
+        <v/>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7" t="str">
+        <f>IF(SUM(C7:C29)&gt;0, SUM(C7:C29),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="8">
+        <f>IF(SUM(D7:D29)&gt;0, SUM(D7:D29),"")</f>
         <v>52</v>
       </c>
-      <c r="E29" s="8">
-        <f t="shared" si="0"/>
+      <c r="E30" s="8">
+        <f>IF(SUM(E7:E29)&gt;0, SUM(E7:E29),"")</f>
         <v>67.5</v>
       </c>
-      <c r="F29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="0"/>
+      <c r="F30" s="8" t="str">
+        <f>IF(SUM(F7:F29)&gt;0, SUM(F7:F29),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f>IF(SUM(G7:G29)&gt;0, SUM(G7:G29),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f>IF(SUM(H7:H29)&gt;0, SUM(H7:H29),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="8">
+        <f>IF(SUM(I7:I29)&gt;0, SUM(I7:I29),"")</f>
         <v>254.07999999999998</v>
       </c>
-      <c r="J29" s="8">
-        <f t="shared" si="0"/>
+      <c r="J30" s="8">
+        <f>IF(SUM(J7:J29)&gt;0, SUM(J7:J29),"")</f>
         <v>350</v>
       </c>
-      <c r="K29" s="8">
-        <f t="shared" si="0"/>
+      <c r="K30" s="8">
+        <f>IF(SUM(K7:K29)&gt;0, SUM(K7:K29),"")</f>
         <v>767.38</v>
       </c>
-      <c r="L29" s="8">
-        <f t="shared" si="0"/>
+      <c r="L30" s="8">
+        <f>IF(SUM(L7:L29)&gt;0, SUM(L7:L29),"")</f>
         <v>3939.1499999999996</v>
       </c>
-      <c r="M29" s="8">
-        <f t="shared" si="0"/>
+      <c r="M30" s="8">
+        <f>IF(SUM(M7:M29)&gt;0, SUM(M7:M29),"")</f>
         <v>4010.68</v>
       </c>
-      <c r="N29" s="8">
-        <f t="shared" si="0"/>
+      <c r="N30" s="8">
+        <f>IF(SUM(N7:N29)&gt;0, SUM(N7:N29),"")</f>
         <v>3185.21</v>
       </c>
-      <c r="O29" s="11">
-        <f t="shared" si="0"/>
+      <c r="O30" s="11">
+        <f>IF(SUM(O7:O29)&gt;0, SUM(O7:O29),"")</f>
         <v>856.6</v>
       </c>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N30" s="10" t="s">
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="15">
-        <f>SUM(C29:O29)</f>
-        <v>14182.6</v>
-      </c>
-      <c r="P30" s="13">
-        <f>IF(SUM(P6:P28)&gt;0, SUM(P6:P28),"")</f>
+      <c r="O31" s="15">
+        <f>SUM(C30:O30)</f>
+        <v>13482.6</v>
+      </c>
+      <c r="P31" s="13">
+        <f>IF(SUM(P7:P29)&gt;0, SUM(P7:P29),"")</f>
         <v>7695</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O31" s="14" t="s">
+    <row r="32" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="9">
-        <f>SUM(O30:P30)</f>
-        <v>21877.599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="P32" s="9">
+        <f>SUM(O31:P31)</f>
+        <v>21177.599999999999</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -418,6 +418,482 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TOTAIS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15866881205574482"/>
+          <c:y val="0.11544876159993862"/>
+          <c:w val="0.80769756067294496"/>
+          <c:h val="0.60249992121701224"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total parcia 18/04 a 18/06</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$C$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Combustível</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Despesas indiretas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cimento/ Argamassas/ Clarofilito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Areia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pedra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tijolos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Geral</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Caçamba</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hidráulica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ipermeabilização</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Drywall</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pintura</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Mão de obra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>749.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4123.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2949.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1419.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1690.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2352.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2984.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Total parcial 21/06 a 08/07</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$C$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Combustível</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Despesas indiretas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cimento/ Argamassas/ Clarofilito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Areia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pedra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tijolos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Geral</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Caçamba</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hidráulica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ipermeabilização</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Drywall</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pintura</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Mão de obra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254.07999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>767.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3939.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4010.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3185.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>856.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Totais Geral</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$C$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Combustível</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Despesas indiretas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cimento/ Argamassas/ Clarofilito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Areia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pedra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tijolos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Geral</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Caçamba</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hidráulica</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ipermeabilização</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Drywall</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pintura</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Mão de obra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Plan1!$C$22:$O$22,Plan1!$P$23)</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4191.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2949.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1419.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1944.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3119.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3939.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4010.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3185.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3841.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="83022208"/>
+        <c:axId val="83023744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83022208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83023744"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83023744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="83022208"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11714471312672424"/>
+          <c:y val="6.0178385236479129E-2"/>
+          <c:w val="0.86180646249907311"/>
+          <c:h val="3.9332064127981937E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,8 +1186,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="C4:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,6 +1722,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20025" windowHeight="7905"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="20025" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Combustível</t>
   </si>
@@ -36,9 +39,6 @@
   </si>
   <si>
     <t>Caçamba</t>
-  </si>
-  <si>
-    <t>Hidráulica</t>
   </si>
   <si>
     <t>Elétrica</t>
@@ -70,6 +70,12 @@
   <si>
     <t>18/04  a  18/06</t>
   </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>Hidráulica / Esgoto</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,13 +102,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,7 +140,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -134,10 +158,25 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -149,10 +188,25 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -170,7 +224,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -185,7 +239,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -200,7 +254,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -209,10 +263,8 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thick">
@@ -227,10 +279,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -242,61 +292,7 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -310,19 +306,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -352,11 +335,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -364,46 +384,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,9 +498,17 @@
             <c:v>Total parcia 18/04 a 18/06</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$C$5:$P$5</c:f>
+              <c:f>Plan1!$D$5:$Q$5</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -507,7 +536,7 @@
                   <c:v>Caçamba</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Hidráulica</c:v>
+                  <c:v>Hidráulica / Esgoto</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Elétrica</c:v>
@@ -529,7 +558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$C$7:$P$7</c:f>
+              <c:f>Plan1!$D$8:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -576,7 +605,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$C$5:$P$5</c:f>
+              <c:f>Plan1!$D$5:$Q$5</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -604,7 +633,7 @@
                   <c:v>Caçamba</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Hidráulica</c:v>
+                  <c:v>Hidráulica / Esgoto</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Elétrica</c:v>
@@ -626,21 +655,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$C$20:$P$20</c:f>
+              <c:f>Plan1!$D$25:$Q$25</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>700</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.5</c:v>
+                  <c:v>209.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -649,28 +678,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>254.07999999999998</c:v>
+                  <c:v>280.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>767.38</c:v>
+                  <c:v>1188.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3939.1499999999996</c:v>
+                  <c:v>4094.0499999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3185.21</c:v>
+                  <c:v>6265.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>856.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7695</c:v>
+                  <c:v>10090</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +714,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$C$5:$P$5</c:f>
+              <c:f>Plan1!$D$5:$Q$5</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -713,7 +742,7 @@
                   <c:v>Caçamba</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Hidráulica</c:v>
+                  <c:v>Hidráulica / Esgoto</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Elétrica</c:v>
@@ -735,21 +764,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$C$22:$O$22,Plan1!$P$23)</c:f>
+              <c:f>(Plan1!$D$27:$P$27,Plan1!$Q$28)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2530</c:v>
+                  <c:v>2730</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>801.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4191.3999999999996</c:v>
+                  <c:v>4333.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2949.96</c:v>
+                  <c:v>3225.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -758,28 +787,28 @@
                   <c:v>1419.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1944.14</c:v>
+                  <c:v>1970.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3119.52</c:v>
+                  <c:v>3540.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3939.1499999999996</c:v>
+                  <c:v>4094.0499999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3185.21</c:v>
+                  <c:v>6265.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3841.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42695</c:v>
+                  <c:v>45090</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,11 +824,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="83022208"/>
-        <c:axId val="83023744"/>
+        <c:axId val="319346944"/>
+        <c:axId val="319430656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83022208"/>
+        <c:axId val="319346944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,14 +837,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83023744"/>
+        <c:crossAx val="319430656"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83023744"/>
+        <c:axId val="319430656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +861,8 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83022208"/>
+        <c:crossAx val="319346944"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -865,15 +896,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -894,6 +925,53 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="LEVANTAMENTO"/>
+      <sheetName val="ORÇAMENTO"/>
+      <sheetName val="FÍSICO x FINANCEIRO"/>
+      <sheetName val="CURVA &quot;S&quot;"/>
+      <sheetName val="CURVA &quot;V&quot;"/>
+      <sheetName val="FÍSICO SEMANAL"/>
+      <sheetName val="Dados de Físico Semanal"/>
+      <sheetName val="List_Materiais"/>
+      <sheetName val="List._Materiais"/>
+      <sheetName val="List_Ferramentas"/>
+      <sheetName val="CUST_Geral_M_OBRA"/>
+      <sheetName val="CUST_Diário_M_Obra"/>
+      <sheetName val="RDO"/>
+      <sheetName val="Ordem de Serviço"/>
+      <sheetName val="Plan1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="9">
+          <cell r="C9">
+            <v>45090</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,541 +1262,666 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="C4:P25"/>
+  <dimension ref="C4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:16" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="18"/>
+      <c r="D6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="18"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="18"/>
+      <c r="D8" s="21">
+        <v>1830</v>
+      </c>
+      <c r="E8" s="22">
+        <v>749.36</v>
+      </c>
+      <c r="F8" s="22">
+        <v>4123.8999999999996</v>
+      </c>
+      <c r="G8" s="22">
+        <v>2949.96</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
+        <v>1419.8</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1690.06</v>
+      </c>
+      <c r="K8" s="22">
+        <v>2480</v>
+      </c>
+      <c r="L8" s="22">
+        <v>2352.14</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22">
+        <v>2984.58</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3">
+        <v>276</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="K11" s="3">
+        <v>350</v>
+      </c>
+      <c r="L11" s="3">
+        <v>491.06</v>
+      </c>
+      <c r="M11" s="3">
+        <v>155.9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4010.68</v>
+      </c>
+      <c r="O11" s="3">
+        <v>12</v>
+      </c>
+      <c r="P11" s="3">
+        <v>856.6</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>[1]CUST_Diário_M_Obra!$C$9-Q8</f>
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>5.99</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>273.32</v>
+      </c>
+      <c r="M12" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>246.65</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="17">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>142</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>40</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2864.43</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>2779.2</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="17">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>25</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>420.7</v>
+      </c>
+      <c r="M14" s="3">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="17">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="18">
-        <v>1830</v>
-      </c>
-      <c r="D7" s="14">
-        <v>749.36</v>
-      </c>
-      <c r="E7" s="14">
-        <v>4123.8999999999996</v>
-      </c>
-      <c r="F7" s="14">
-        <v>2949.96</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14">
-        <v>1419.8</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1690.06</v>
-      </c>
-      <c r="J7" s="14">
-        <v>2480</v>
-      </c>
-      <c r="K7" s="14">
-        <v>2352.14</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14">
-        <v>2984.58</v>
-      </c>
-      <c r="P7" s="15">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="17">
-        <v>70</v>
-      </c>
-      <c r="D10" s="5">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="J10" s="5">
-        <v>350</v>
-      </c>
-      <c r="K10" s="5">
-        <v>491.06</v>
-      </c>
-      <c r="L10" s="5">
-        <v>155.9</v>
-      </c>
-      <c r="M10" s="5">
-        <v>4010.68</v>
-      </c>
-      <c r="N10" s="5">
-        <v>12</v>
-      </c>
-      <c r="O10" s="5">
-        <v>856.6</v>
-      </c>
-      <c r="P10" s="6">
-        <v>7695</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="17">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <v>578.72</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3">
+        <v>1612.3</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="17">
         <v>100</v>
       </c>
-      <c r="D11" s="5">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5">
-        <v>33.5</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>5.99</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
-        <v>273.32</v>
-      </c>
-      <c r="L11" s="5">
-        <v>62.5</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5">
-        <v>246.65</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="17">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <v>20</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <v>1467.79</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+      <c r="D17" s="17">
+        <v>130</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+      <c r="D18" s="17">
         <v>100</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>40</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5">
-        <v>3</v>
-      </c>
-      <c r="L12" s="5">
-        <v>2864.43</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>2779.2</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="17">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="18"/>
+      <c r="D19" s="11">
         <v>100</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>25</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
-        <v>257.60000000000002</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5">
-        <v>147.36000000000001</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="17">
-        <v>100</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>578.72</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="17">
-        <v>100</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>20</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="17">
-        <v>130</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <v>69.5</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5">
-        <v>36</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>48.19</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="20">
-        <f t="shared" ref="C20:P20" si="0">IF(SUM(C10:C18)&gt;0, SUM(C10:C18),"")</f>
-        <v>700</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>25.99</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="18"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="18"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="18"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="18"/>
+      <c r="D25" s="23">
+        <f>IF(SUM(D11:D24)&gt;0, SUM(D11:D24),"")</f>
+        <v>900</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" ref="E25:Q25" si="0">IF(SUM(E11:E24)&gt;0, SUM(E11:E24),"")</f>
+        <v>52</v>
+      </c>
+      <c r="F25" s="23">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="E20" s="21">
+        <v>209.5</v>
+      </c>
+      <c r="G25" s="23">
         <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-      <c r="F20" s="21" t="str">
+        <v>276</v>
+      </c>
+      <c r="H25" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="I25" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="J25" s="23">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="21">
-        <f t="shared" si="0"/>
-        <v>254.07999999999998</v>
-      </c>
-      <c r="J20" s="21">
+        <v>280.07</v>
+      </c>
+      <c r="K25" s="23">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="K20" s="21">
+      <c r="L25" s="23">
         <f t="shared" si="0"/>
-        <v>767.38</v>
-      </c>
-      <c r="L20" s="21">
+        <v>1188.08</v>
+      </c>
+      <c r="M25" s="23">
         <f t="shared" si="0"/>
-        <v>3939.1499999999996</v>
-      </c>
-      <c r="M20" s="21">
+        <v>4094.0499999999997</v>
+      </c>
+      <c r="N25" s="23">
         <f t="shared" si="0"/>
         <v>4010.68</v>
       </c>
-      <c r="N20" s="21">
+      <c r="O25" s="23">
         <f t="shared" si="0"/>
-        <v>3185.21</v>
-      </c>
-      <c r="O20" s="21">
+        <v>6265.3</v>
+      </c>
+      <c r="P25" s="23">
         <f t="shared" si="0"/>
         <v>856.6</v>
       </c>
-      <c r="P20" s="22">
+      <c r="Q25" s="23">
         <f t="shared" si="0"/>
-        <v>7695</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="7">
-        <f>IF(SUM(C7:C19)&gt;0, SUM(C7:C19),"")</f>
-        <v>2530</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" ref="D22:O22" si="1">IF(SUM(D7:D19)&gt;0, SUM(D7:D19),"")</f>
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="18"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="24">
+        <f>IF(SUM(D8:D24)&gt;0, SUM(D8:D24),"")</f>
+        <v>2730</v>
+      </c>
+      <c r="E27" s="25">
+        <f>IF(SUM(E8:E24)&gt;0, SUM(E8:E24),"")</f>
         <v>801.36</v>
       </c>
-      <c r="E22" s="8">
-        <f t="shared" si="1"/>
-        <v>4191.3999999999996</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="1"/>
-        <v>2949.96</v>
-      </c>
-      <c r="G22" s="8" t="str">
-        <f t="shared" si="1"/>
+      <c r="F27" s="25">
+        <f>IF(SUM(F8:F24)&gt;0, SUM(F8:F24),"")</f>
+        <v>4333.3999999999996</v>
+      </c>
+      <c r="G27" s="25">
+        <f>IF(SUM(G8:G24)&gt;0, SUM(G8:G24),"")</f>
+        <v>3225.96</v>
+      </c>
+      <c r="H27" s="25" t="str">
+        <f>IF(SUM(H8:H24)&gt;0, SUM(H8:H24),"")</f>
         <v/>
       </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
+      <c r="I27" s="25">
+        <f>IF(SUM(I8:I24)&gt;0, SUM(I8:I24),"")</f>
         <v>1419.8</v>
       </c>
-      <c r="I22" s="8">
-        <f t="shared" si="1"/>
-        <v>1944.14</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="1"/>
+      <c r="J27" s="25">
+        <f>IF(SUM(J8:J24)&gt;0, SUM(J8:J24),"")</f>
+        <v>1970.13</v>
+      </c>
+      <c r="K27" s="25">
+        <f>IF(SUM(K8:K24)&gt;0, SUM(K8:K24),"")</f>
         <v>2830</v>
       </c>
-      <c r="K22" s="8">
-        <f t="shared" si="1"/>
-        <v>3119.52</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="1"/>
-        <v>3939.1499999999996</v>
-      </c>
-      <c r="M22" s="8">
-        <f t="shared" si="1"/>
+      <c r="L27" s="25">
+        <f>IF(SUM(L8:L24)&gt;0, SUM(L8:L24),"")</f>
+        <v>3540.22</v>
+      </c>
+      <c r="M27" s="25">
+        <f>IF(SUM(M8:M24)&gt;0, SUM(M8:M24),"")</f>
+        <v>4094.0499999999997</v>
+      </c>
+      <c r="N27" s="25">
+        <f>IF(SUM(N8:N24)&gt;0, SUM(N8:N24),"")</f>
         <v>4010.68</v>
       </c>
-      <c r="N22" s="8">
-        <f t="shared" si="1"/>
-        <v>3185.21</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="1"/>
+      <c r="O27" s="25">
+        <f>IF(SUM(O8:O24)&gt;0, SUM(O8:O24),"")</f>
+        <v>6265.3</v>
+      </c>
+      <c r="P27" s="25">
+        <f>IF(SUM(P8:P24)&gt;0, SUM(P8:P24),"")</f>
         <v>3841.18</v>
       </c>
-      <c r="P22" s="19"/>
-    </row>
-    <row r="23" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N23" s="10" t="s">
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="8">
+        <f>SUM(D27:P27)</f>
+        <v>39062.080000000002</v>
+      </c>
+      <c r="Q28" s="19">
+        <f>IF(SUM(Q8:Q24)&gt;0, SUM(Q8:Q24),"")</f>
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="13">
-        <f>SUM(C22:O22)</f>
-        <v>34762.400000000001</v>
-      </c>
-      <c r="P23" s="11">
-        <f>IF(SUM(P7:P19)&gt;0, SUM(P7:P19),"")</f>
-        <v>42695</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="9">
-        <f>SUM(O23:P23)</f>
-        <v>77457.399999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="Q29" s="5">
+        <f>SUM(P28:Q28)</f>
+        <v>84152.08</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C9:P9"/>
-    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="D6:Q6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Combustível</t>
   </si>
@@ -71,18 +71,22 @@
     <t>18/04  a  18/06</t>
   </si>
   <si>
-    <t>Índice</t>
+    <t>Hidráulica / Esgoto</t>
   </si>
   <si>
-    <t>Hidráulica / Esgoto</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Ocorrências</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="dd/mm&quot;  &quot;ddd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -131,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -372,11 +376,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -394,12 +413,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -415,18 +428,38 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +591,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$8:$Q$8</c:f>
+              <c:f>Plan1!$D$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -655,7 +688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$25:$Q$25</c:f>
+              <c:f>Plan1!$D$35:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -764,7 +797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$D$27:$P$27,Plan1!$Q$28)</c:f>
+              <c:f>(Plan1!$D$37:$P$37,Plan1!$Q$38)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -824,11 +857,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="319346944"/>
-        <c:axId val="319430656"/>
+        <c:axId val="312543872"/>
+        <c:axId val="312553856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319346944"/>
+        <c:axId val="312543872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +870,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319430656"/>
+        <c:crossAx val="312553856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -845,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319430656"/>
+        <c:axId val="312553856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +894,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="319346944"/>
+        <c:crossAx val="312543872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -898,13 +931,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1262,25 +1295,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="C4:Q30"/>
+  <dimension ref="C4:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1305,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>7</v>
@@ -1324,27 +1355,73 @@
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="18"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30">
+        <f>COUNT(D9,D13:D25)</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="30">
+        <f>COUNT(E9,E13:E26)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="30">
+        <f>COUNT(F9,F14:F26)</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="30">
+        <f>COUNT(G9,G21:G26)</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="30">
+        <f>COUNT(H9,H13:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <f>COUNT(I9,I13:I26)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="30">
+        <f>COUNT(J9,J16:J26)</f>
+        <v>11</v>
+      </c>
+      <c r="K6" s="30">
+        <f>COUNT(K9,K15:K26)</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="30">
+        <f>COUNT(L9,L12:L26)</f>
+        <v>5</v>
+      </c>
+      <c r="M6" s="30">
+        <f>COUNT(M9,M17:M25)</f>
+        <v>7</v>
+      </c>
+      <c r="N6" s="30">
+        <f>COUNT(N9,N21:N25)</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="30">
+        <f>COUNT(O9,O17:O25)</f>
+        <v>6</v>
+      </c>
+      <c r="P6" s="30">
+        <f>COUNT(P9,P17:P25)</f>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>COUNT(Q9,Q21:Q25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -1360,568 +1437,667 @@
       <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="21">
+      <c r="C8" s="16"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="33" t="str">
+        <f>D7</f>
+        <v>18/04  a  18/06</v>
+      </c>
+      <c r="D9" s="19">
         <v>1830</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E9" s="20">
         <v>749.36</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F9" s="20">
         <v>4123.8999999999996</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G9" s="20">
         <v>2949.96</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
         <v>1419.8</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J9" s="20">
         <v>1690.06</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K9" s="20">
         <v>2480</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L9" s="20">
         <v>2352.14</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22">
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20">
         <v>2984.58</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q9" s="18">
         <v>35000</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-    </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="18"/>
-      <c r="D11" s="17">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="34">
+        <v>44730</v>
+      </c>
+      <c r="L12" s="3">
+        <v>491.06</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="34">
+        <v>44733</v>
+      </c>
+      <c r="D13" s="15">
         <v>70</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="3">
         <v>33</v>
       </c>
-      <c r="F11" s="3">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3">
-        <v>276</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="K11" s="3">
-        <v>350</v>
-      </c>
-      <c r="L11" s="3">
-        <v>491.06</v>
-      </c>
-      <c r="M11" s="3">
-        <v>155.9</v>
-      </c>
-      <c r="N11" s="3">
-        <v>4010.68</v>
-      </c>
-      <c r="O11" s="3">
-        <v>12</v>
-      </c>
-      <c r="P11" s="3">
-        <v>856.6</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>[1]CUST_Diário_M_Obra!$C$9-Q8</f>
-        <v>10090</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="18"/>
-      <c r="D12" s="17">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
-        <v>33.5</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>5.99</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>273.32</v>
-      </c>
-      <c r="M12" s="3">
-        <v>62.5</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>246.65</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="18"/>
-      <c r="D13" s="17">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>142</v>
-      </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>40</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>3</v>
-      </c>
-      <c r="M13" s="3">
-        <v>2864.43</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>2779.2</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
-      <c r="D14" s="17">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>25</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>420.7</v>
-      </c>
-      <c r="M14" s="3">
-        <v>257.60000000000002</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>147.36000000000001</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
+      <c r="C14" s="34">
+        <v>44735</v>
+      </c>
+      <c r="F14" s="3">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="18"/>
-      <c r="D15" s="17">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="34">
+        <v>44736</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
-        <v>578.72</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3">
-        <v>1612.3</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
+      <c r="K15" s="3">
+        <v>350</v>
+      </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="17">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="34">
+        <v>44737</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3">
-        <v>17.5</v>
+        <v>6.9</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3">
-        <v>20</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3">
-        <v>1467.79</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="17">
-        <v>130</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="C17" s="34">
+        <v>44739</v>
+      </c>
+      <c r="D17" s="15">
+        <v>100</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
-        <v>69.5</v>
+        <v>5.99</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
       <c r="M17" s="3">
-        <v>154.9</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
+        <v>155.9</v>
+      </c>
+      <c r="O17" s="3">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3">
+        <v>856.6</v>
+      </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="18"/>
-      <c r="D18" s="17">
+      <c r="C18" s="34">
+        <v>44740</v>
+      </c>
+      <c r="D18" s="15">
         <v>100</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
       <c r="J18" s="3">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="M18" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="O18" s="3">
+        <v>246.65</v>
+      </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="18"/>
-      <c r="D19" s="11">
+      <c r="C19" s="34">
+        <v>44741</v>
+      </c>
+      <c r="D19" s="15">
         <v>100</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3">
-        <v>48.19</v>
+        <v>25</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="18"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="C20" s="34">
+        <v>44742</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <v>25.99</v>
+        <v>5</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="18"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="15">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>276</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="4"/>
+      <c r="L21" s="3">
+        <v>273.32</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2864.43</v>
+      </c>
+      <c r="N21" s="3">
+        <v>4010.68</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2779.2</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4">
+        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
+        <v>10090</v>
+      </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="18"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="15">
+        <v>100</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>142</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3">
+        <v>17.5</v>
+      </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="3">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>257.60000000000002</v>
+      </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="11"/>
+      <c r="O22" s="3">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="18"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="15">
+        <v>130</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>69.5</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="3">
+        <v>420.7</v>
+      </c>
+      <c r="M23" s="3">
+        <v>578.72</v>
+      </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="11"/>
+      <c r="O23" s="3">
+        <v>1612.3</v>
+      </c>
+      <c r="P23" s="3"/>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="18"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="15">
+        <v>100</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>36</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>20</v>
+      </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="11"/>
+      <c r="O24" s="3">
+        <v>1467.79</v>
+      </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="18"/>
-      <c r="D25" s="23">
-        <f>IF(SUM(D11:D24)&gt;0, SUM(D11:D24),"")</f>
-        <v>900</v>
-      </c>
-      <c r="E25" s="23">
-        <f t="shared" ref="E25:Q25" si="0">IF(SUM(E11:E24)&gt;0, SUM(E11:E24),"")</f>
-        <v>52</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="0"/>
-        <v>209.5</v>
-      </c>
-      <c r="G25" s="23">
-        <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="H25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="0"/>
-        <v>280.07</v>
-      </c>
-      <c r="K25" s="23">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="L25" s="23">
-        <f t="shared" si="0"/>
-        <v>1188.08</v>
-      </c>
-      <c r="M25" s="23">
-        <f t="shared" si="0"/>
-        <v>4094.0499999999997</v>
-      </c>
-      <c r="N25" s="23">
-        <f t="shared" si="0"/>
-        <v>4010.68</v>
-      </c>
-      <c r="O25" s="23">
-        <f t="shared" si="0"/>
-        <v>6265.3</v>
-      </c>
-      <c r="P25" s="23">
-        <f t="shared" si="0"/>
-        <v>856.6</v>
-      </c>
-      <c r="Q25" s="23">
-        <f t="shared" si="0"/>
-        <v>10090</v>
-      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="11">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>48.19</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="18"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="11"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>25.99</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="24">
-        <f>IF(SUM(D8:D24)&gt;0, SUM(D8:D24),"")</f>
+      <c r="Q26" s="35"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="34"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="35"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="34"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="35"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="34"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="35"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="34"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="35"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="34"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="35"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="34"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="35"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="34"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="35"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="34"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="35"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="16"/>
+      <c r="D35" s="21">
+        <f>IF(SUM(D13:D25)&gt;0, SUM(D13:D25),"")</f>
+        <v>900</v>
+      </c>
+      <c r="E35" s="21">
+        <f>IF(SUM(E13:E26)&gt;0, SUM(E13:E26),"")</f>
+        <v>52</v>
+      </c>
+      <c r="F35" s="21">
+        <f>IF(SUM(F14:F26)&gt;0, SUM(F14:F26),"")</f>
+        <v>209.5</v>
+      </c>
+      <c r="G35" s="21">
+        <f>IF(SUM(G21:G26)&gt;0, SUM(G21:G26),"")</f>
+        <v>276</v>
+      </c>
+      <c r="H35" s="21" t="str">
+        <f>IF(SUM(H13:H26)&gt;0, SUM(H13:H26),"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="21" t="str">
+        <f>IF(SUM(I13:I26)&gt;0, SUM(I13:I26),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="21">
+        <f>IF(SUM(J16:J26)&gt;0, SUM(J16:J26),"")</f>
+        <v>280.07</v>
+      </c>
+      <c r="K35" s="21">
+        <f>IF(SUM(K15:K26)&gt;0, SUM(K15:K26),"")</f>
+        <v>350</v>
+      </c>
+      <c r="L35" s="21">
+        <f>IF(SUM(L12:L26)&gt;0, SUM(L12:L26),"")</f>
+        <v>1188.08</v>
+      </c>
+      <c r="M35" s="21">
+        <f>IF(SUM(M17:M25)&gt;0, SUM(M17:M25),"")</f>
+        <v>4094.0499999999997</v>
+      </c>
+      <c r="N35" s="21">
+        <f>IF(SUM(N21:N25)&gt;0, SUM(N21:N25),"")</f>
+        <v>4010.68</v>
+      </c>
+      <c r="O35" s="21">
+        <f>IF(SUM(O17:O25)&gt;0, SUM(O17:O25),"")</f>
+        <v>6265.3</v>
+      </c>
+      <c r="P35" s="21">
+        <f>IF(SUM(P17:P25)&gt;0, SUM(P17:P25),"")</f>
+        <v>856.6</v>
+      </c>
+      <c r="Q35" s="21">
+        <f>IF(SUM(Q21:Q25)&gt;0, SUM(Q21:Q25),"")</f>
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="16"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="22">
+        <f>IF(SUM(D9:D25)&gt;0, SUM(D9:D25),"")</f>
         <v>2730</v>
       </c>
-      <c r="E27" s="25">
-        <f>IF(SUM(E8:E24)&gt;0, SUM(E8:E24),"")</f>
+      <c r="E37" s="23">
+        <f>IF(SUM(E9:E26)&gt;0, SUM(E9:E26),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F27" s="25">
-        <f>IF(SUM(F8:F24)&gt;0, SUM(F8:F24),"")</f>
+      <c r="F37" s="23">
+        <f>IF(SUM(F9:F26)&gt;0, SUM(F9:F26),"")</f>
         <v>4333.3999999999996</v>
       </c>
-      <c r="G27" s="25">
-        <f>IF(SUM(G8:G24)&gt;0, SUM(G8:G24),"")</f>
+      <c r="G37" s="23">
+        <f>IF(SUM(G9:G26)&gt;0, SUM(G9:G26),"")</f>
         <v>3225.96</v>
       </c>
-      <c r="H27" s="25" t="str">
-        <f>IF(SUM(H8:H24)&gt;0, SUM(H8:H24),"")</f>
+      <c r="H37" s="23" t="str">
+        <f>IF(SUM(H9:H26)&gt;0, SUM(H9:H26),"")</f>
         <v/>
       </c>
-      <c r="I27" s="25">
-        <f>IF(SUM(I8:I24)&gt;0, SUM(I8:I24),"")</f>
+      <c r="I37" s="23">
+        <f>IF(SUM(I9:I26)&gt;0, SUM(I9:I26),"")</f>
         <v>1419.8</v>
       </c>
-      <c r="J27" s="25">
-        <f>IF(SUM(J8:J24)&gt;0, SUM(J8:J24),"")</f>
+      <c r="J37" s="23">
+        <f>IF(SUM(J9:J26)&gt;0, SUM(J9:J26),"")</f>
         <v>1970.13</v>
       </c>
-      <c r="K27" s="25">
-        <f>IF(SUM(K8:K24)&gt;0, SUM(K8:K24),"")</f>
+      <c r="K37" s="23">
+        <f>IF(SUM(K9:K26)&gt;0, SUM(K9:K26),"")</f>
         <v>2830</v>
       </c>
-      <c r="L27" s="25">
-        <f>IF(SUM(L8:L24)&gt;0, SUM(L8:L24),"")</f>
+      <c r="L37" s="23">
+        <f>IF(SUM(L9:L26)&gt;0, SUM(L9:L26),"")</f>
         <v>3540.22</v>
       </c>
-      <c r="M27" s="25">
-        <f>IF(SUM(M8:M24)&gt;0, SUM(M8:M24),"")</f>
+      <c r="M37" s="23">
+        <f>IF(SUM(M9:M25)&gt;0, SUM(M9:M25),"")</f>
         <v>4094.0499999999997</v>
       </c>
-      <c r="N27" s="25">
-        <f>IF(SUM(N8:N24)&gt;0, SUM(N8:N24),"")</f>
+      <c r="N37" s="23">
+        <f>IF(SUM(N9:N25)&gt;0, SUM(N9:N25),"")</f>
         <v>4010.68</v>
       </c>
-      <c r="O27" s="25">
-        <f>IF(SUM(O8:O24)&gt;0, SUM(O8:O24),"")</f>
+      <c r="O37" s="23">
+        <f>IF(SUM(O9:O25)&gt;0, SUM(O9:O25),"")</f>
         <v>6265.3</v>
       </c>
-      <c r="P27" s="25">
-        <f>IF(SUM(P8:P24)&gt;0, SUM(P8:P24),"")</f>
+      <c r="P37" s="23">
+        <f>IF(SUM(P9:P25)&gt;0, SUM(P9:P25),"")</f>
         <v>3841.18</v>
       </c>
-      <c r="Q27" s="12"/>
-    </row>
-    <row r="28" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O28" s="6" t="s">
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="8">
-        <f>SUM(D27:P27)</f>
+      <c r="P38" s="8">
+        <f>SUM(D37:P37)</f>
         <v>39062.080000000002</v>
       </c>
-      <c r="Q28" s="19">
-        <f>IF(SUM(Q8:Q24)&gt;0, SUM(Q8:Q24),"")</f>
+      <c r="Q38" s="17">
+        <f>IF(SUM(Q9:Q25)&gt;0, SUM(Q9:Q25),"")</f>
         <v>45090</v>
       </c>
     </row>
-    <row r="29" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P29" s="7" t="s">
+    <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q29" s="5">
-        <f>SUM(P28:Q28)</f>
+      <c r="Q39" s="5">
+        <f>SUM(P38:Q38)</f>
         <v>84152.08</v>
       </c>
     </row>
-    <row r="30" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D7:Q7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -86,7 +86,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="dd/mm&quot;  &quot;ddd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm&quot;  &quot;ddd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -395,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -417,9 +423,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -434,6 +437,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,20 +462,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,7 +708,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209.5</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>276</c:v>
@@ -720,7 +729,7 @@
                   <c:v>1188.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4094.0499999999997</c:v>
+                  <c:v>4232.8499999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -732,7 +741,7 @@
                   <c:v>856.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10090</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +817,7 @@
                   <c:v>801.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4333.3999999999996</c:v>
+                  <c:v>4191.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3225.96</c:v>
@@ -829,7 +838,7 @@
                   <c:v>3540.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4094.0499999999997</c:v>
+                  <c:v>4232.8499999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -841,7 +850,7 @@
                   <c:v>3841.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45090</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,11 +866,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="312543872"/>
-        <c:axId val="312553856"/>
+        <c:axId val="316029952"/>
+        <c:axId val="316031744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312543872"/>
+        <c:axId val="316029952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +879,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312553856"/>
+        <c:crossAx val="316031744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312553856"/>
+        <c:axId val="316031744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +903,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312543872"/>
+        <c:crossAx val="316029952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1298,7 +1307,11 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:Q25"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1323,7 @@
   <sheetData>
     <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="31"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1355,146 +1368,146 @@
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30">
-        <f>COUNT(D9,D13:D25)</f>
+      <c r="D6" s="25">
+        <f>COUNT(D9,D13:D26)</f>
         <v>10</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <f>COUNT(E9,E13:E26)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <f>COUNT(F9,F14:F26)</f>
-        <v>4</v>
-      </c>
-      <c r="G6" s="30">
-        <f>COUNT(G9,G21:G26)</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="25">
+        <f>COUNT(G9,G23:G26)</f>
         <v>2</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="25">
         <f>COUNT(H9,H13:H26)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="25">
         <f>COUNT(I9,I13:I26)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="30">
-        <f>COUNT(J9,J16:J26)</f>
+      <c r="J6" s="25">
+        <f>COUNT(J9,J16:J27)</f>
         <v>11</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="25">
         <f>COUNT(K9,K15:K26)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="25">
         <f>COUNT(L9,L12:L26)</f>
         <v>5</v>
       </c>
-      <c r="M6" s="30">
-        <f>COUNT(M9,M17:M25)</f>
-        <v>7</v>
-      </c>
-      <c r="N6" s="30">
-        <f>COUNT(N9,N21:N25)</f>
+      <c r="M6" s="25">
+        <f>COUNT(M9,M17:M26)</f>
+        <v>8</v>
+      </c>
+      <c r="N6" s="25">
+        <f>COUNT(N9,N21:N26)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="30">
-        <f>COUNT(O9,O17:O25)</f>
+      <c r="O6" s="25">
+        <f>COUNT(O9,O17:O27)</f>
         <v>6</v>
       </c>
-      <c r="P6" s="30">
-        <f>COUNT(P9,P17:P25)</f>
+      <c r="P6" s="25">
+        <f>COUNT(P9,P17:P26)</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="32">
-        <f>COUNT(Q9,Q21:Q25)</f>
-        <v>2</v>
+      <c r="Q6" s="27">
+        <f>COUNT(Q9,Q23:Q26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="28" t="str">
         <f>D7</f>
         <v>18/04  a  18/06</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>1830</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>749.36</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>4123.8999999999996</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>2949.96</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19">
         <v>1419.8</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>1690.06</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>2480</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>2352.14</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20">
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19">
         <v>2984.58</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>35000</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="14"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1511,234 +1524,317 @@
       <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="34">
+      <c r="C12" s="29">
         <v>44730</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3">
         <v>491.06</v>
       </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="34">
+      <c r="C13" s="29">
         <v>44733</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="35">
         <v>70</v>
       </c>
       <c r="E13" s="3">
         <v>33</v>
       </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="34">
+      <c r="C14" s="29">
         <v>44735</v>
       </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>34</v>
       </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="34">
+      <c r="C15" s="29">
         <v>44736</v>
       </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3">
         <v>350</v>
       </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="34">
+      <c r="C16" s="29">
         <v>44737</v>
       </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3">
         <v>6.9</v>
       </c>
       <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="34">
+      <c r="C17" s="29">
         <v>44739</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="35">
         <v>100</v>
       </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
         <v>5.99</v>
       </c>
       <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="3">
         <v>155.9</v>
       </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="3">
         <v>12</v>
       </c>
       <c r="P17" s="3">
         <v>856.6</v>
       </c>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="34">
+      <c r="C18" s="29">
         <v>44740</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="35">
         <v>100</v>
       </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3">
         <v>40</v>
       </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="3">
         <v>62.5</v>
       </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="3">
         <v>246.65</v>
       </c>
       <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="34">
+      <c r="C19" s="29">
         <v>44741</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="35">
         <v>100</v>
       </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3">
         <v>25</v>
       </c>
       <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="34">
+      <c r="C20" s="29">
         <v>44742</v>
       </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
         <v>5</v>
       </c>
       <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="15">
+      <c r="C21" s="29">
+        <v>44743</v>
+      </c>
+      <c r="D21" s="35">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3">
-        <v>33.5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>276</v>
-      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <v>17.5</v>
+      </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>273.32</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="M21" s="3">
         <v>2864.43</v>
       </c>
       <c r="N21" s="3">
         <v>4010.68</v>
       </c>
-      <c r="O21" s="3">
-        <v>2779.2</v>
-      </c>
+      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="4">
-        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>10090</v>
-      </c>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="15">
-        <v>100</v>
-      </c>
+      <c r="C22" s="29">
+        <v>44744</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
-        <v>142</v>
+        <v>33.5</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>257.60000000000002</v>
+      <c r="L22" s="3"/>
+      <c r="M22" s="34">
+        <v>138.80000000000001</v>
       </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="3">
-        <v>147.36000000000001</v>
-      </c>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
-      <c r="D23" s="15">
-        <v>130</v>
+      <c r="C23" s="29">
+        <v>44746</v>
+      </c>
+      <c r="D23" s="35">
+        <v>100</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>276</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3">
+      <c r="J23" s="34">
         <v>69.5</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <v>420.7</v>
-      </c>
+      <c r="L23" s="3"/>
       <c r="M23" s="3">
-        <v>578.72</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
-        <v>1612.3</v>
+        <v>2779.2</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="15">
+      <c r="C24" s="29">
+        <v>44747</v>
+      </c>
+      <c r="D24" s="35">
         <v>100</v>
       </c>
       <c r="E24" s="3"/>
@@ -1747,37 +1843,43 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3">
-        <v>36</v>
+        <v>48.19</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>273.32</v>
+      </c>
       <c r="M24" s="3">
-        <v>20</v>
+        <v>578.72</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
-        <v>1467.79</v>
+        <v>147.36000000000001</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="11">
-        <v>100</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="C25" s="29">
+        <v>44748</v>
+      </c>
+      <c r="D25" s="35">
+        <v>130</v>
+      </c>
+      <c r="E25" s="3">
+        <v>19</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3">
-        <v>48.19</v>
-      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>3</v>
+      </c>
       <c r="M25" s="3">
-        <v>154.9</v>
+        <v>20</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1785,221 +1887,248 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="29">
+        <v>44751</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>420.7</v>
+      </c>
+      <c r="M26" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3">
+        <v>1612.3</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="29">
+        <v>44753</v>
+      </c>
+      <c r="D27" s="36">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>142</v>
+      </c>
+      <c r="G27" s="3">
+        <v>276</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>25.99</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="35"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="35"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
+        <v>1467.79</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="34"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="35"/>
+      <c r="C28" s="29">
+        <v>44757</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>142.5</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="35"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="35"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="34"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="35"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="34"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="35"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="34"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="35"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="34"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="35"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4">
+        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
+        <v>10090</v>
+      </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="D35" s="21">
-        <f>IF(SUM(D13:D25)&gt;0, SUM(D13:D25),"")</f>
+      <c r="C35" s="15"/>
+      <c r="D35" s="20">
+        <f>IF(SUM(D13:D26)&gt;0, SUM(D13:D26),"")</f>
         <v>900</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <f>IF(SUM(E13:E26)&gt;0, SUM(E13:E26),"")</f>
         <v>52</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f>IF(SUM(F14:F26)&gt;0, SUM(F14:F26),"")</f>
-        <v>209.5</v>
-      </c>
-      <c r="G35" s="21">
-        <f>IF(SUM(G21:G26)&gt;0, SUM(G21:G26),"")</f>
+        <v>67.5</v>
+      </c>
+      <c r="G35" s="20">
+        <f>IF(SUM(G23:G26)&gt;0, SUM(G23:G26),"")</f>
         <v>276</v>
       </c>
-      <c r="H35" s="21" t="str">
+      <c r="H35" s="20" t="str">
         <f>IF(SUM(H13:H26)&gt;0, SUM(H13:H26),"")</f>
         <v/>
       </c>
-      <c r="I35" s="21" t="str">
+      <c r="I35" s="20" t="str">
         <f>IF(SUM(I13:I26)&gt;0, SUM(I13:I26),"")</f>
         <v/>
       </c>
-      <c r="J35" s="21">
-        <f>IF(SUM(J16:J26)&gt;0, SUM(J16:J26),"")</f>
+      <c r="J35" s="20">
+        <f>IF(SUM(J16:J27)&gt;0, SUM(J16:J27),"")</f>
         <v>280.07</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <f>IF(SUM(K15:K26)&gt;0, SUM(K15:K26),"")</f>
         <v>350</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <f>IF(SUM(L12:L26)&gt;0, SUM(L12:L26),"")</f>
         <v>1188.08</v>
       </c>
-      <c r="M35" s="21">
-        <f>IF(SUM(M17:M25)&gt;0, SUM(M17:M25),"")</f>
-        <v>4094.0499999999997</v>
-      </c>
-      <c r="N35" s="21">
-        <f>IF(SUM(N21:N25)&gt;0, SUM(N21:N25),"")</f>
+      <c r="M35" s="20">
+        <f>IF(SUM(M17:M26)&gt;0, SUM(M17:M26),"")</f>
+        <v>4232.8499999999995</v>
+      </c>
+      <c r="N35" s="20">
+        <f>IF(SUM(N21:N26)&gt;0, SUM(N21:N26),"")</f>
         <v>4010.68</v>
       </c>
-      <c r="O35" s="21">
-        <f>IF(SUM(O17:O25)&gt;0, SUM(O17:O25),"")</f>
+      <c r="O35" s="20">
+        <f>IF(SUM(O17:O27)&gt;0, SUM(O17:O27),"")</f>
         <v>6265.3</v>
       </c>
-      <c r="P35" s="21">
-        <f>IF(SUM(P17:P25)&gt;0, SUM(P17:P25),"")</f>
+      <c r="P35" s="20">
+        <f>IF(SUM(P17:P26)&gt;0, SUM(P17:P26),"")</f>
         <v>856.6</v>
       </c>
-      <c r="Q35" s="21">
-        <f>IF(SUM(Q21:Q25)&gt;0, SUM(Q21:Q25),"")</f>
-        <v>10090</v>
+      <c r="Q35" s="20" t="str">
+        <f>IF(SUM(Q23:Q26)&gt;0, SUM(Q23:Q26),"")</f>
+        <v/>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="11"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2017,56 +2146,56 @@
     </row>
     <row r="37" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
-      <c r="D37" s="22">
-        <f>IF(SUM(D9:D25)&gt;0, SUM(D9:D25),"")</f>
+      <c r="D37" s="21">
+        <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
         <v>2730</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <f>IF(SUM(E9:E26)&gt;0, SUM(E9:E26),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F37" s="23">
-        <f>IF(SUM(F9:F26)&gt;0, SUM(F9:F26),"")</f>
-        <v>4333.3999999999996</v>
-      </c>
-      <c r="G37" s="23">
-        <f>IF(SUM(G9:G26)&gt;0, SUM(G9:G26),"")</f>
+      <c r="F37" s="22">
+        <f t="shared" ref="E37:L37" si="0">IF(SUM(F9:F26)&gt;0, SUM(F9:F26),"")</f>
+        <v>4191.3999999999996</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="0"/>
         <v>3225.96</v>
       </c>
-      <c r="H37" s="23" t="str">
-        <f>IF(SUM(H9:H26)&gt;0, SUM(H9:H26),"")</f>
+      <c r="H37" s="22" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I37" s="23">
-        <f>IF(SUM(I9:I26)&gt;0, SUM(I9:I26),"")</f>
+      <c r="I37" s="22">
+        <f t="shared" si="0"/>
         <v>1419.8</v>
       </c>
-      <c r="J37" s="23">
-        <f>IF(SUM(J9:J26)&gt;0, SUM(J9:J26),"")</f>
+      <c r="J37" s="22">
+        <f>IF(SUM(J9:J27)&gt;0, SUM(J9:J27),"")</f>
         <v>1970.13</v>
       </c>
-      <c r="K37" s="23">
-        <f>IF(SUM(K9:K26)&gt;0, SUM(K9:K26),"")</f>
+      <c r="K37" s="22">
+        <f t="shared" si="0"/>
         <v>2830</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="22">
         <f>IF(SUM(L9:L26)&gt;0, SUM(L9:L26),"")</f>
         <v>3540.22</v>
       </c>
-      <c r="M37" s="23">
-        <f>IF(SUM(M9:M25)&gt;0, SUM(M9:M25),"")</f>
-        <v>4094.0499999999997</v>
-      </c>
-      <c r="N37" s="23">
-        <f>IF(SUM(N9:N25)&gt;0, SUM(N9:N25),"")</f>
+      <c r="M37" s="22">
+        <f>IF(SUM(M9:M26)&gt;0, SUM(M9:M26),"")</f>
+        <v>4232.8499999999995</v>
+      </c>
+      <c r="N37" s="22">
+        <f>IF(SUM(N9:N26)&gt;0, SUM(N9:N26),"")</f>
         <v>4010.68</v>
       </c>
-      <c r="O37" s="23">
-        <f>IF(SUM(O9:O25)&gt;0, SUM(O9:O25),"")</f>
+      <c r="O37" s="22">
+        <f>IF(SUM(O9:O27)&gt;0, SUM(O9:O27),"")</f>
         <v>6265.3</v>
       </c>
-      <c r="P37" s="23">
-        <f>IF(SUM(P9:P25)&gt;0, SUM(P9:P25),"")</f>
+      <c r="P37" s="22">
+        <f>IF(SUM(P9:P26)&gt;0, SUM(P9:P26),"")</f>
         <v>3841.18</v>
       </c>
       <c r="Q37" s="12"/>
@@ -2077,11 +2206,11 @@
       </c>
       <c r="P38" s="8">
         <f>SUM(D37:P37)</f>
-        <v>39062.080000000002</v>
-      </c>
-      <c r="Q38" s="17">
-        <f>IF(SUM(Q9:Q25)&gt;0, SUM(Q9:Q25),"")</f>
-        <v>45090</v>
+        <v>39058.880000000005</v>
+      </c>
+      <c r="Q38" s="16">
+        <f>IF(SUM(Q9:Q26)&gt;0, SUM(Q9:Q26),"")</f>
+        <v>35000</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2090,7 +2219,7 @@
       </c>
       <c r="Q39" s="5">
         <f>SUM(P38:Q38)</f>
-        <v>84152.08</v>
+        <v>74058.880000000005</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="20025" windowHeight="7845"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20025" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -450,6 +450,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,13 +468,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,11 +866,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="316029952"/>
-        <c:axId val="316031744"/>
+        <c:axId val="315120256"/>
+        <c:axId val="315130240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316029952"/>
+        <c:axId val="315120256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +879,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316031744"/>
+        <c:crossAx val="315130240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -887,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316031744"/>
+        <c:axId val="315130240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +903,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="316029952"/>
+        <c:crossAx val="315120256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1004,7 +1004,7 @@
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
-            <v>45090</v>
+            <v>46770</v>
           </cell>
         </row>
       </sheetData>
@@ -1307,7 +1307,7 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
@@ -1432,22 +1432,22 @@
       <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
@@ -1525,22 +1525,22 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="29">
@@ -1567,7 +1567,7 @@
       <c r="C13" s="29">
         <v>44733</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="31">
         <v>70</v>
       </c>
       <c r="E13" s="3">
@@ -1653,7 +1653,7 @@
       <c r="C17" s="29">
         <v>44739</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="31">
         <v>100</v>
       </c>
       <c r="E17" s="3"/>
@@ -1682,7 +1682,7 @@
       <c r="C18" s="29">
         <v>44740</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="31">
         <v>100</v>
       </c>
       <c r="E18" s="3"/>
@@ -1709,7 +1709,7 @@
       <c r="C19" s="29">
         <v>44741</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="31">
         <v>100</v>
       </c>
       <c r="E19" s="3"/>
@@ -1753,7 +1753,7 @@
       <c r="C21" s="29">
         <v>44743</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="31">
         <v>100</v>
       </c>
       <c r="E21" s="3"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="34">
+      <c r="M22" s="30">
         <v>138.80000000000001</v>
       </c>
       <c r="N22" s="3"/>
@@ -1805,7 +1805,7 @@
       <c r="C23" s="29">
         <v>44746</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="31">
         <v>100</v>
       </c>
       <c r="E23" s="3"/>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="34">
+      <c r="J23" s="30">
         <v>69.5</v>
       </c>
       <c r="K23" s="3"/>
@@ -1834,7 +1834,7 @@
       <c r="C24" s="29">
         <v>44747</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="31">
         <v>100</v>
       </c>
       <c r="E24" s="3"/>
@@ -1863,7 +1863,7 @@
       <c r="C25" s="29">
         <v>44748</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="31">
         <v>130</v>
       </c>
       <c r="E25" s="3">
@@ -1917,7 +1917,7 @@
       <c r="C27" s="29">
         <v>44753</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="32">
         <v>100</v>
       </c>
       <c r="E27" s="3"/>
@@ -2065,7 +2065,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="4">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>10090</v>
+        <v>11770</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>801.36</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" ref="E37:L37" si="0">IF(SUM(F9:F26)&gt;0, SUM(F9:F26),"")</f>
+        <f t="shared" ref="F37:K37" si="0">IF(SUM(F9:F26)&gt;0, SUM(F9:F26),"")</f>
         <v>4191.3999999999996</v>
       </c>
       <c r="G37" s="22">

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -708,10 +708,10 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.5</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276</c:v>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -741,7 +741,7 @@
                   <c:v>856.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>11770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,10 +817,10 @@
                   <c:v>801.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4191.3999999999996</c:v>
+                  <c:v>4475.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3225.96</c:v>
+                  <c:v>3501.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -850,7 +850,7 @@
                   <c:v>3841.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35000</c:v>
+                  <c:v>46770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,11 +866,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="315120256"/>
-        <c:axId val="315130240"/>
+        <c:axId val="315906688"/>
+        <c:axId val="315916672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315120256"/>
+        <c:axId val="315906688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +879,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="315130240"/>
+        <c:crossAx val="315916672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -887,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315130240"/>
+        <c:axId val="315916672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +903,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="315120256"/>
+        <c:crossAx val="315906688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,11 +1307,11 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="Q34" sqref="Q34"/>
+      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,56 +2075,56 @@
         <v>900</v>
       </c>
       <c r="E35" s="20">
-        <f>IF(SUM(E13:E26)&gt;0, SUM(E13:E26),"")</f>
+        <f t="shared" ref="E35:P35" si="0">IF(SUM(E12:E34)&gt;0, SUM(E12:E34),"")</f>
         <v>52</v>
       </c>
       <c r="F35" s="20">
-        <f>IF(SUM(F14:F26)&gt;0, SUM(F14:F26),"")</f>
-        <v>67.5</v>
+        <f t="shared" si="0"/>
+        <v>352</v>
       </c>
       <c r="G35" s="20">
-        <f>IF(SUM(G23:G26)&gt;0, SUM(G23:G26),"")</f>
-        <v>276</v>
+        <f t="shared" si="0"/>
+        <v>552</v>
       </c>
       <c r="H35" s="20" t="str">
-        <f>IF(SUM(H13:H26)&gt;0, SUM(H13:H26),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I35" s="20" t="str">
-        <f>IF(SUM(I13:I26)&gt;0, SUM(I13:I26),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J35" s="20">
-        <f>IF(SUM(J16:J27)&gt;0, SUM(J16:J27),"")</f>
+        <f t="shared" si="0"/>
         <v>280.07</v>
       </c>
       <c r="K35" s="20">
-        <f>IF(SUM(K15:K26)&gt;0, SUM(K15:K26),"")</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="L35" s="20">
-        <f>IF(SUM(L12:L26)&gt;0, SUM(L12:L26),"")</f>
+        <f t="shared" si="0"/>
         <v>1188.08</v>
       </c>
       <c r="M35" s="20">
-        <f>IF(SUM(M17:M26)&gt;0, SUM(M17:M26),"")</f>
+        <f t="shared" si="0"/>
         <v>4232.8499999999995</v>
       </c>
       <c r="N35" s="20">
-        <f>IF(SUM(N21:N26)&gt;0, SUM(N21:N26),"")</f>
+        <f t="shared" si="0"/>
         <v>4010.68</v>
       </c>
       <c r="O35" s="20">
-        <f>IF(SUM(O17:O27)&gt;0, SUM(O17:O27),"")</f>
+        <f t="shared" si="0"/>
         <v>6265.3</v>
       </c>
       <c r="P35" s="20">
-        <f>IF(SUM(P17:P26)&gt;0, SUM(P17:P26),"")</f>
+        <f t="shared" si="0"/>
         <v>856.6</v>
       </c>
-      <c r="Q35" s="20" t="str">
-        <f>IF(SUM(Q23:Q26)&gt;0, SUM(Q23:Q26),"")</f>
-        <v/>
+      <c r="Q35" s="20">
+        <f>IF(SUM(Q12:Q34)&gt;0, SUM(Q12:Q34),"")</f>
+        <v>11770</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
@@ -2151,51 +2151,51 @@
         <v>2730</v>
       </c>
       <c r="E37" s="22">
-        <f>IF(SUM(E9:E26)&gt;0, SUM(E9:E26),"")</f>
+        <f>IF(SUM(E9:E34)&gt;0, SUM(E9:E34),"")</f>
         <v>801.36</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" ref="F37:K37" si="0">IF(SUM(F9:F26)&gt;0, SUM(F9:F26),"")</f>
-        <v>4191.3999999999996</v>
+        <f t="shared" ref="F37:P37" si="1">IF(SUM(F9:F34)&gt;0, SUM(F9:F34),"")</f>
+        <v>4475.8999999999996</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="0"/>
-        <v>3225.96</v>
+        <f t="shared" si="1"/>
+        <v>3501.96</v>
       </c>
       <c r="H37" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1419.8</v>
       </c>
       <c r="J37" s="22">
-        <f>IF(SUM(J9:J27)&gt;0, SUM(J9:J27),"")</f>
+        <f t="shared" si="1"/>
         <v>1970.13</v>
       </c>
       <c r="K37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2830</v>
       </c>
       <c r="L37" s="22">
-        <f>IF(SUM(L9:L26)&gt;0, SUM(L9:L26),"")</f>
+        <f t="shared" si="1"/>
         <v>3540.22</v>
       </c>
       <c r="M37" s="22">
-        <f>IF(SUM(M9:M26)&gt;0, SUM(M9:M26),"")</f>
+        <f t="shared" si="1"/>
         <v>4232.8499999999995</v>
       </c>
       <c r="N37" s="22">
-        <f>IF(SUM(N9:N26)&gt;0, SUM(N9:N26),"")</f>
+        <f t="shared" si="1"/>
         <v>4010.68</v>
       </c>
       <c r="O37" s="22">
-        <f>IF(SUM(O9:O27)&gt;0, SUM(O9:O27),"")</f>
+        <f t="shared" si="1"/>
         <v>6265.3</v>
       </c>
       <c r="P37" s="22">
-        <f>IF(SUM(P9:P26)&gt;0, SUM(P9:P26),"")</f>
+        <f t="shared" si="1"/>
         <v>3841.18</v>
       </c>
       <c r="Q37" s="12"/>
@@ -2206,11 +2206,11 @@
       </c>
       <c r="P38" s="8">
         <f>SUM(D37:P37)</f>
-        <v>39058.880000000005</v>
+        <v>39619.380000000005</v>
       </c>
       <c r="Q38" s="16">
-        <f>IF(SUM(Q9:Q26)&gt;0, SUM(Q9:Q26),"")</f>
-        <v>35000</v>
+        <f>IF(SUM(Q9:Q34)&gt;0, SUM(Q9:Q34),"")</f>
+        <v>46770</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="Q39" s="5">
         <f>SUM(P38:Q38)</f>
-        <v>74058.880000000005</v>
+        <v>86389.38</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20025" windowHeight="7785"/>
+    <workbookView xWindow="240" yWindow="300" windowWidth="20025" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -140,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -414,7 +414,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -424,13 +423,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,14 +441,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -463,12 +458,17 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +702,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
@@ -711,7 +711,7 @@
                   <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>552</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -720,7 +720,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>280.07</c:v>
+                  <c:v>287.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>350</c:v>
@@ -729,7 +729,7 @@
                   <c:v>1188.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4232.8499999999995</c:v>
+                  <c:v>4225.8500000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -811,7 +811,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2730</c:v>
+                  <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>801.36</c:v>
@@ -820,7 +820,7 @@
                   <c:v>4475.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3501.96</c:v>
+                  <c:v>3225.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -829,7 +829,7 @@
                   <c:v>1419.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1970.13</c:v>
+                  <c:v>1977.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2830</c:v>
@@ -838,7 +838,7 @@
                   <c:v>3540.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4232.8499999999995</c:v>
+                  <c:v>4225.8500000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -866,11 +866,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="315906688"/>
-        <c:axId val="315916672"/>
+        <c:axId val="314002048"/>
+        <c:axId val="314012032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315906688"/>
+        <c:axId val="314002048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +879,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="315916672"/>
+        <c:crossAx val="314012032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -887,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315916672"/>
+        <c:axId val="314012032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +903,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="315906688"/>
+        <c:crossAx val="314002048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -990,17 +990,17 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
@@ -1008,9 +1008,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1307,11 +1307,11 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="P37" sqref="P37"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,8 +1323,8 @@
   <sheetData>
     <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="26"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1368,206 +1368,206 @@
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="25">
-        <f>COUNT(D9,D13:D26)</f>
+      <c r="D6" s="23">
+        <f>COUNT(D9,D12:D34)</f>
         <v>10</v>
       </c>
-      <c r="E6" s="25">
-        <f>COUNT(E9,E13:E26)</f>
+      <c r="E6" s="23">
+        <f t="shared" ref="E6:Q6" si="0">COUNT(E9,E12:E34)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="25">
-        <f>COUNT(F9,F14:F26)</f>
-        <v>3</v>
-      </c>
-      <c r="G6" s="25">
-        <f>COUNT(G9,G23:G26)</f>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H6" s="25">
-        <f>COUNT(H9,H13:H26)</f>
+      <c r="H6" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="25">
-        <f>COUNT(I9,I13:I26)</f>
+      <c r="I6" s="23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6" s="25">
-        <f>COUNT(J9,J16:J27)</f>
+      <c r="J6" s="23">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K6" s="25">
-        <f>COUNT(K9,K15:K26)</f>
+      <c r="K6" s="23">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L6" s="25">
-        <f>COUNT(L9,L12:L26)</f>
+      <c r="L6" s="23">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M6" s="25">
-        <f>COUNT(M9,M17:M26)</f>
+      <c r="M6" s="23">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N6" s="25">
-        <f>COUNT(N9,N21:N26)</f>
+      <c r="N6" s="23">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O6" s="25">
-        <f>COUNT(O9,O17:O27)</f>
+      <c r="O6" s="23">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P6" s="25">
-        <f>COUNT(P9,P17:P26)</f>
+      <c r="P6" s="23">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q6" s="27">
-        <f>COUNT(Q9,Q23:Q26)</f>
-        <v>1</v>
+      <c r="Q6" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="25" t="str">
         <f>D7</f>
         <v>18/04  a  18/06</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>1830</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>749.36</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>4123.8999999999996</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>2949.96</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
         <v>1419.8</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>1690.06</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <v>2480</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>2352.14</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17">
         <v>2984.58</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="15">
         <v>35000</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>44730</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36">
         <v>491.06</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="29">
+      <c r="C13" s="26">
         <v>44733</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="28">
         <v>70</v>
       </c>
       <c r="E13" s="3">
@@ -1587,28 +1587,28 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <v>44735</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36">
         <v>34</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="29">
+      <c r="C15" s="26">
         <v>44736</v>
       </c>
       <c r="D15" s="3"/>
@@ -1629,31 +1629,31 @@
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="29">
+      <c r="C16" s="26">
         <v>44737</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36">
         <v>6.9</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="29">
+      <c r="C17" s="26">
         <v>44739</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="28">
         <v>100</v>
       </c>
       <c r="E17" s="3"/>
@@ -1667,7 +1667,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3">
-        <v>155.9</v>
+        <v>148.9</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3">
@@ -1679,39 +1679,37 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <v>44740</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="36">
         <v>100</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36">
         <v>40</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3">
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36">
         <v>62.5</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3">
+      <c r="N18" s="36"/>
+      <c r="O18" s="36">
         <v>246.65</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="29">
+      <c r="C19" s="26">
         <v>44741</v>
       </c>
-      <c r="D19" s="31">
-        <v>100</v>
-      </c>
+      <c r="D19" s="28"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1729,31 +1727,31 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="29">
+      <c r="C20" s="26">
         <v>44742</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36">
         <v>5</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>44743</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <v>100</v>
       </c>
       <c r="E21" s="3"/>
@@ -1777,51 +1775,45 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="29">
+      <c r="C22" s="26">
         <v>44744</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36">
         <v>33.5</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3">
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36">
         <v>36</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="30">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="29">
+      <c r="C23" s="26">
         <v>44746</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="28">
         <v>100</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>276</v>
-      </c>
+      <c r="G23" s="38"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="30">
-        <v>69.5</v>
-      </c>
+      <c r="J23" s="38"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3">
-        <v>257.60000000000002</v>
+      <c r="M23" s="38">
+        <v>138.80000000000001</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
@@ -1831,39 +1823,39 @@
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="29">
+      <c r="C24" s="26">
         <v>44747</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="36">
         <v>100</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36">
         <v>48.19</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
+      <c r="K24" s="36"/>
+      <c r="L24" s="36">
         <v>273.32</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="36">
         <v>578.72</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3">
+      <c r="N24" s="36"/>
+      <c r="O24" s="36">
         <v>147.36000000000001</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="4"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="29">
+      <c r="C25" s="26">
         <v>44748</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="28">
         <v>130</v>
       </c>
       <c r="E25" s="3">
@@ -1887,37 +1879,37 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="29">
+      <c r="C26" s="26">
         <v>44751</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="36">
         <v>100</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36">
         <v>420.7</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="36">
         <v>154.9</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3">
+      <c r="N26" s="36"/>
+      <c r="O26" s="36">
         <v>1612.3</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="29">
+      <c r="C27" s="26">
         <v>44753</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="29">
         <v>100</v>
       </c>
       <c r="E27" s="3"/>
@@ -1943,35 +1935,39 @@
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="29">
+      <c r="C28" s="26">
         <v>44757</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36">
         <v>142.5</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="29"/>
+      <c r="C29" s="26">
+        <v>44758</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3">
+        <v>76.8</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1981,24 +1977,24 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="29"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="29"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2015,24 +2011,26 @@
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="29"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="27">
+        <v>257.60000000000002</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="29"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2049,87 +2047,87 @@
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="29"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="4">
+      <c r="C34" s="26"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="37">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
         <v>11770</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
-      <c r="D35" s="20">
+      <c r="C35" s="14"/>
+      <c r="D35" s="18">
         <f>IF(SUM(D13:D26)&gt;0, SUM(D13:D26),"")</f>
-        <v>900</v>
-      </c>
-      <c r="E35" s="20">
-        <f t="shared" ref="E35:P35" si="0">IF(SUM(E12:E34)&gt;0, SUM(E12:E34),"")</f>
+        <v>800</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" ref="E35:P35" si="1">IF(SUM(E12:E34)&gt;0, SUM(E12:E34),"")</f>
         <v>52</v>
       </c>
-      <c r="F35" s="20">
-        <f t="shared" si="0"/>
+      <c r="F35" s="18">
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="G35" s="20">
-        <f t="shared" si="0"/>
-        <v>552</v>
-      </c>
-      <c r="H35" s="20" t="str">
-        <f t="shared" si="0"/>
+      <c r="G35" s="18">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="H35" s="18" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="20" t="str">
-        <f t="shared" si="0"/>
+      <c r="I35" s="18" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J35" s="20">
-        <f t="shared" si="0"/>
-        <v>280.07</v>
-      </c>
-      <c r="K35" s="20">
-        <f t="shared" si="0"/>
+      <c r="J35" s="18">
+        <f t="shared" si="1"/>
+        <v>287.37</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="L35" s="20">
-        <f t="shared" si="0"/>
+      <c r="L35" s="18">
+        <f t="shared" si="1"/>
         <v>1188.08</v>
       </c>
-      <c r="M35" s="20">
-        <f t="shared" si="0"/>
-        <v>4232.8499999999995</v>
-      </c>
-      <c r="N35" s="20">
-        <f t="shared" si="0"/>
+      <c r="M35" s="18">
+        <f t="shared" si="1"/>
+        <v>4225.8500000000004</v>
+      </c>
+      <c r="N35" s="18">
+        <f t="shared" si="1"/>
         <v>4010.68</v>
       </c>
-      <c r="O35" s="20">
-        <f t="shared" si="0"/>
+      <c r="O35" s="18">
+        <f t="shared" si="1"/>
         <v>6265.3</v>
       </c>
-      <c r="P35" s="20">
-        <f t="shared" si="0"/>
+      <c r="P35" s="18">
+        <f t="shared" si="1"/>
         <v>856.6</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="18">
         <f>IF(SUM(Q12:Q34)&gt;0, SUM(Q12:Q34),"")</f>
         <v>11770</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="15"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2141,74 +2139,74 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="11"/>
+      <c r="P36" s="10"/>
       <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="7"/>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
-        <v>2730</v>
-      </c>
-      <c r="E37" s="22">
+        <v>2630</v>
+      </c>
+      <c r="E37" s="20">
         <f>IF(SUM(E9:E34)&gt;0, SUM(E9:E34),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F37" s="22">
-        <f t="shared" ref="F37:P37" si="1">IF(SUM(F9:F34)&gt;0, SUM(F9:F34),"")</f>
+      <c r="F37" s="20">
+        <f t="shared" ref="F37:P37" si="2">IF(SUM(F9:F34)&gt;0, SUM(F9:F34),"")</f>
         <v>4475.8999999999996</v>
       </c>
-      <c r="G37" s="22">
-        <f t="shared" si="1"/>
-        <v>3501.96</v>
-      </c>
-      <c r="H37" s="22" t="str">
-        <f t="shared" si="1"/>
+      <c r="G37" s="20">
+        <f t="shared" si="2"/>
+        <v>3225.96</v>
+      </c>
+      <c r="H37" s="20" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="22">
-        <f t="shared" si="1"/>
+      <c r="I37" s="20">
+        <f t="shared" si="2"/>
         <v>1419.8</v>
       </c>
-      <c r="J37" s="22">
-        <f t="shared" si="1"/>
-        <v>1970.13</v>
-      </c>
-      <c r="K37" s="22">
-        <f t="shared" si="1"/>
+      <c r="J37" s="20">
+        <f t="shared" si="2"/>
+        <v>1977.43</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="2"/>
         <v>2830</v>
       </c>
-      <c r="L37" s="22">
-        <f t="shared" si="1"/>
+      <c r="L37" s="20">
+        <f t="shared" si="2"/>
         <v>3540.22</v>
       </c>
-      <c r="M37" s="22">
-        <f t="shared" si="1"/>
-        <v>4232.8499999999995</v>
-      </c>
-      <c r="N37" s="22">
-        <f t="shared" si="1"/>
+      <c r="M37" s="20">
+        <f t="shared" si="2"/>
+        <v>4225.8500000000004</v>
+      </c>
+      <c r="N37" s="20">
+        <f t="shared" si="2"/>
         <v>4010.68</v>
       </c>
-      <c r="O37" s="22">
-        <f t="shared" si="1"/>
+      <c r="O37" s="20">
+        <f t="shared" si="2"/>
         <v>6265.3</v>
       </c>
-      <c r="P37" s="22">
-        <f t="shared" si="1"/>
+      <c r="P37" s="20">
+        <f t="shared" si="2"/>
         <v>3841.18</v>
       </c>
-      <c r="Q37" s="12"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="35">
         <f>SUM(D37:P37)</f>
-        <v>39619.380000000005</v>
-      </c>
-      <c r="Q38" s="16">
+        <v>39243.680000000008</v>
+      </c>
+      <c r="Q38" s="34">
         <f>IF(SUM(Q9:Q34)&gt;0, SUM(Q9:Q34),"")</f>
         <v>46770</v>
       </c>
@@ -2219,7 +2217,7 @@
       </c>
       <c r="Q39" s="5">
         <f>SUM(P38:Q38)</f>
-        <v>86389.38</v>
+        <v>86013.680000000008</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -97,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,18 +130,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -397,11 +391,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -411,7 +431,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -445,13 +464,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,11 +487,16 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,6 +644,9 @@
                 <c:pt idx="3">
                   <c:v>2949.96</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>1419.8</c:v>
                 </c:pt>
@@ -702,7 +733,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
@@ -729,7 +760,7 @@
                   <c:v>1188.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4225.8500000000004</c:v>
+                  <c:v>3968.2500000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -823,7 +854,7 @@
                   <c:v>3225.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1419.8</c:v>
@@ -838,7 +869,7 @@
                   <c:v>3540.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4225.8500000000004</c:v>
+                  <c:v>3968.2500000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -866,11 +897,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="314002048"/>
-        <c:axId val="314012032"/>
+        <c:axId val="313342592"/>
+        <c:axId val="313356672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314002048"/>
+        <c:axId val="313342592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +910,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314012032"/>
+        <c:crossAx val="313356672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -887,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314012032"/>
+        <c:axId val="313356672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +934,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="314002048"/>
+        <c:crossAx val="313342592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -938,16 +969,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205317</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>210609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460376</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1307,11 +1338,11 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="A23:XFD23"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,8 +1354,8 @@
   <sheetData>
     <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1368,206 +1399,211 @@
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f>COUNT(D9,D12:D34)</f>
         <v>10</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f t="shared" ref="E6:Q6" si="0">COUNT(E9,E12:E34)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H6" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="H6" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6" s="23">
+      <c r="I6" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N6" s="23">
+        <v>7</v>
+      </c>
+      <c r="N6" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="25" t="str">
+      <c r="C9" s="24" t="str">
         <f>D7</f>
         <v>18/04  a  18/06</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>1830</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>749.36</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>4123.8999999999996</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>2949.96</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
+      <c r="H9" s="16">
+        <v>280</v>
+      </c>
+      <c r="I9" s="16">
         <v>1419.8</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>1690.06</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>2480</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>2352.14</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
         <v>2984.58</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <v>35000</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
+      <c r="C10" s="37">
+        <f>SUM(D9:Q9)</f>
+        <v>55859.8</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>44730</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30">
         <v>491.06</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>44733</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>70</v>
       </c>
       <c r="E13" s="3">
@@ -1587,28 +1623,28 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>44735</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30">
         <v>34</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>44736</v>
       </c>
       <c r="D15" s="3"/>
@@ -1629,31 +1665,31 @@
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>44737</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30">
         <v>6.9</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>44739</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <v>100</v>
       </c>
       <c r="E17" s="3"/>
@@ -1679,37 +1715,37 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>44740</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="30">
         <v>100</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30">
         <v>40</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36">
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30">
         <v>62.5</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36">
+      <c r="N18" s="30"/>
+      <c r="O18" s="30">
         <v>246.65</v>
       </c>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>44741</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1727,31 +1763,31 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>44742</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30">
         <v>5</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>44743</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="26">
         <v>100</v>
       </c>
       <c r="E21" s="3"/>
@@ -1775,44 +1811,44 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>44744</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30">
         <v>33.5</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36">
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30">
         <v>36</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>44746</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="26">
         <v>100</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="38"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="38">
+      <c r="M23" s="32">
         <v>138.80000000000001</v>
       </c>
       <c r="N23" s="3"/>
@@ -1823,39 +1859,39 @@
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>44747</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="30">
         <v>100</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30">
         <v>48.19</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36">
+      <c r="K24" s="30"/>
+      <c r="L24" s="30">
         <v>273.32</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="30">
         <v>578.72</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36">
+      <c r="N24" s="30"/>
+      <c r="O24" s="30">
         <v>147.36000000000001</v>
       </c>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>44748</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="26">
         <v>130</v>
       </c>
       <c r="E25" s="3">
@@ -1879,37 +1915,37 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>44751</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="30">
         <v>100</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30">
         <v>420.7</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="30">
         <v>154.9</v>
       </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36">
+      <c r="N26" s="30"/>
+      <c r="O26" s="30">
         <v>1612.3</v>
       </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>44753</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="27">
         <v>100</v>
       </c>
       <c r="E27" s="3"/>
@@ -1935,28 +1971,28 @@
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>44757</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30">
         <v>142.5</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>44758</v>
       </c>
       <c r="D29" s="3"/>
@@ -1977,24 +2013,24 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="26"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2011,26 +2047,24 @@
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="27">
-        <v>257.60000000000002</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="26"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2047,87 +2081,87 @@
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="26"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37">
+      <c r="C34" s="25"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
         <v>11770</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="D35" s="18">
-        <f>IF(SUM(D13:D26)&gt;0, SUM(D13:D26),"")</f>
-        <v>800</v>
-      </c>
-      <c r="E35" s="18">
-        <f t="shared" ref="E35:P35" si="1">IF(SUM(E12:E34)&gt;0, SUM(E12:E34),"")</f>
+      <c r="C35" s="13"/>
+      <c r="D35" s="17">
+        <f t="shared" ref="D35:P35" si="1">IF(SUM(D12:D34)&gt;0, SUM(D12:D34),"")</f>
+        <v>900</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="17">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="H35" s="18" t="str">
+      <c r="H35" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="18" t="str">
+      <c r="I35" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="17">
         <f t="shared" si="1"/>
         <v>287.37</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="17">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="17">
         <f t="shared" si="1"/>
         <v>1188.08</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="17">
         <f t="shared" si="1"/>
-        <v>4225.8500000000004</v>
-      </c>
-      <c r="N35" s="18">
+        <v>3968.2500000000005</v>
+      </c>
+      <c r="N35" s="17">
         <f t="shared" si="1"/>
         <v>4010.68</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="17">
         <f t="shared" si="1"/>
         <v>6265.3</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="17">
         <f t="shared" si="1"/>
         <v>856.6</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="17">
         <f>IF(SUM(Q12:Q34)&gt;0, SUM(Q12:Q34),"")</f>
         <v>11770</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2139,92 +2173,94 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="10"/>
+      <c r="P36" s="9"/>
       <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="7"/>
-      <c r="D37" s="19">
+      <c r="C37" s="6"/>
+      <c r="D37" s="18">
         <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
         <v>2630</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <f>IF(SUM(E9:E34)&gt;0, SUM(E9:E34),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="19">
         <f t="shared" ref="F37:P37" si="2">IF(SUM(F9:F34)&gt;0, SUM(F9:F34),"")</f>
         <v>4475.8999999999996</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="19">
         <f t="shared" si="2"/>
         <v>3225.96</v>
       </c>
-      <c r="H37" s="20" t="str">
+      <c r="H37" s="19">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I37" s="20">
+        <v>280</v>
+      </c>
+      <c r="I37" s="19">
         <f t="shared" si="2"/>
         <v>1419.8</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="19">
         <f t="shared" si="2"/>
         <v>1977.43</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="19">
         <f t="shared" si="2"/>
         <v>2830</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="19">
         <f t="shared" si="2"/>
         <v>3540.22</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="19">
         <f t="shared" si="2"/>
-        <v>4225.8500000000004</v>
-      </c>
-      <c r="N37" s="20">
+        <v>3968.2500000000005</v>
+      </c>
+      <c r="N37" s="19">
         <f t="shared" si="2"/>
         <v>4010.68</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="19">
         <f t="shared" si="2"/>
         <v>6265.3</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P37" s="19">
         <f t="shared" si="2"/>
         <v>3841.18</v>
       </c>
-      <c r="Q37" s="11"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O38" s="6" t="s">
+      <c r="O38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P38" s="35">
+      <c r="P38" s="29">
         <f>SUM(D37:P37)</f>
-        <v>39243.680000000008</v>
-      </c>
-      <c r="Q38" s="34">
+        <v>39266.080000000002</v>
+      </c>
+      <c r="Q38" s="28">
         <f>IF(SUM(Q9:Q34)&gt;0, SUM(Q9:Q34),"")</f>
         <v>46770</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P39" s="7" t="s">
+      <c r="O39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="P39" s="39">
         <f>SUM(P38:Q38)</f>
-        <v>86013.680000000008</v>
-      </c>
+        <v>86036.08</v>
+      </c>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D11:Q11"/>
     <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="P39:Q39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Combustível</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Ocorrências</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -475,6 +478,10 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,21 +494,35 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -772,7 +793,7 @@
                   <c:v>856.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11770</c:v>
+                  <c:v>12550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,7 +902,7 @@
                   <c:v>3841.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46770</c:v>
+                  <c:v>47550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -897,11 +918,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="313342592"/>
-        <c:axId val="313356672"/>
+        <c:axId val="378630144"/>
+        <c:axId val="378632448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313342592"/>
+        <c:axId val="378630144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +931,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313356672"/>
+        <c:crossAx val="378632448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313356672"/>
+        <c:axId val="378632448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +955,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="313342592"/>
+        <c:crossAx val="378630144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,27 +1042,27 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
-            <v>46770</v>
+            <v>47550</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1338,11 +1359,11 @@
   <dimension ref="C4:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1475,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1463,22 +1484,22 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
@@ -1540,7 +1561,7 @@
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="37">
+      <c r="C10" s="33">
         <f>SUM(D9:Q9)</f>
         <v>55859.8</v>
       </c>
@@ -1561,22 +1582,22 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="25">
@@ -2013,19 +2034,31 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="25"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="25">
+        <v>44761</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="L30" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
+      <c r="O30" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="P30" s="30"/>
       <c r="Q30" s="31"/>
     </row>
@@ -2097,7 +2130,7 @@
       <c r="P34" s="30"/>
       <c r="Q34" s="31">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>11770</v>
+        <v>12550</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
@@ -2156,7 +2189,7 @@
       </c>
       <c r="Q35" s="17">
         <f>IF(SUM(Q12:Q34)&gt;0, SUM(Q12:Q34),"")</f>
-        <v>11770</v>
+        <v>12550</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
@@ -2242,7 +2275,7 @@
       </c>
       <c r="Q38" s="28">
         <f>IF(SUM(Q9:Q34)&gt;0, SUM(Q9:Q34),"")</f>
-        <v>46770</v>
+        <v>47550</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2251,7 +2284,7 @@
       </c>
       <c r="P39" s="39">
         <f>SUM(P38:Q38)</f>
-        <v>86036.08</v>
+        <v>86816.08</v>
       </c>
       <c r="Q39" s="40"/>
     </row>
@@ -2262,6 +2295,11 @@
     <mergeCell ref="D7:Q7"/>
     <mergeCell ref="P39:Q39"/>
   </mergeCells>
+  <conditionalFormatting sqref="D12:Q34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -482,6 +482,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,18 +503,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -749,7 +756,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$35:$Q$35</c:f>
+              <c:f>Plan1!$D$36:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -760,7 +767,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>352</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>276</c:v>
@@ -778,10 +785,10 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1188.08</c:v>
+                  <c:v>1195.58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3968.2500000000005</c:v>
+                  <c:v>3986.1500000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -858,7 +865,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$D$37:$P$37,Plan1!$Q$38)</c:f>
+              <c:f>(Plan1!$D$38:$P$38,Plan1!$Q$39)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -869,7 +876,7 @@
                   <c:v>801.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4475.8999999999996</c:v>
+                  <c:v>4510.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3225.96</c:v>
@@ -887,10 +894,10 @@
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3540.22</c:v>
+                  <c:v>3547.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3968.2500000000005</c:v>
+                  <c:v>3986.1500000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4010.68</c:v>
@@ -918,11 +925,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="378630144"/>
-        <c:axId val="378632448"/>
+        <c:axId val="319723776"/>
+        <c:axId val="319737856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="378630144"/>
+        <c:axId val="319723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +938,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378632448"/>
+        <c:crossAx val="319737856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -939,7 +946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378632448"/>
+        <c:axId val="319737856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +962,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="378630144"/>
+        <c:crossAx val="319723776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,13 +999,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>205317</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>210609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>460376</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1356,14 +1363,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="C4:Q40"/>
+  <dimension ref="C4:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,59 +1431,59 @@
         <v>19</v>
       </c>
       <c r="D6" s="22">
-        <f>COUNT(D9,D12:D34)</f>
+        <f>COUNT(D9,D12:D35)</f>
         <v>10</v>
       </c>
       <c r="E6" s="22">
-        <f t="shared" ref="E6:Q6" si="0">COUNT(E9,E12:E34)</f>
+        <f>COUNT(E9,E12:E35)</f>
         <v>3</v>
       </c>
       <c r="F6" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(F9,F12:F35)</f>
+        <v>6</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(G9,G12:G35)</f>
         <v>2</v>
       </c>
       <c r="H6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(H9,H12:H35)</f>
         <v>1</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(I9,I12:I35)</f>
         <v>1</v>
       </c>
       <c r="J6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(J9,J12:J35)</f>
         <v>11</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(K9,K12:K35)</f>
         <v>2</v>
       </c>
       <c r="L6" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNT(L9,L12:L35)</f>
+        <v>6</v>
       </c>
       <c r="M6" s="22">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>COUNT(M9,M12:M35)</f>
+        <v>8</v>
       </c>
       <c r="N6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(N9,N12:N35)</f>
         <v>1</v>
       </c>
       <c r="O6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(O9,O12:O35)</f>
         <v>6</v>
       </c>
       <c r="P6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(P9,P12:P35)</f>
         <v>2</v>
       </c>
       <c r="Q6" s="34">
-        <f t="shared" si="0"/>
+        <f>COUNT(Q9,Q12:Q35)</f>
         <v>2</v>
       </c>
     </row>
@@ -1484,22 +1491,22 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
@@ -1582,22 +1589,22 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="25">
@@ -2037,7 +2044,7 @@
       <c r="C30" s="25">
         <v>44761</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="30"/>
@@ -2045,259 +2052,289 @@
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="35" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="41" t="s">
+      <c r="M30" s="35" t="s">
         <v>20</v>
       </c>
       <c r="N30" s="30"/>
-      <c r="O30" s="41" t="s">
+      <c r="O30" s="35" t="s">
         <v>20</v>
       </c>
       <c r="P30" s="30"/>
       <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="4"/>
+      <c r="C31" s="25">
+        <v>44761</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="25"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="31"/>
+      <c r="C32" s="25">
+        <v>44762</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>35</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="M32" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="25"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="4"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="25"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="31">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
         <v>12550</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="D35" s="17">
-        <f t="shared" ref="D35:P35" si="1">IF(SUM(D12:D34)&gt;0, SUM(D12:D34),"")</f>
-        <v>900</v>
-      </c>
-      <c r="E35" s="17">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="1"/>
-        <v>352</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="H35" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="1"/>
-        <v>287.37</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" si="1"/>
-        <v>1188.08</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="1"/>
-        <v>3968.2500000000005</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="1"/>
-        <v>4010.68</v>
-      </c>
-      <c r="O35" s="17">
-        <f t="shared" si="1"/>
-        <v>6265.3</v>
-      </c>
-      <c r="P35" s="17">
-        <f t="shared" si="1"/>
-        <v>856.6</v>
-      </c>
-      <c r="Q35" s="17">
-        <f>IF(SUM(Q12:Q34)&gt;0, SUM(Q12:Q34),"")</f>
-        <v>12550</v>
-      </c>
-    </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="6"/>
-      <c r="D37" s="18">
+      <c r="D36" s="17">
+        <f>IF(SUM(D12:D35)&gt;0, SUM(D12:D35),"")</f>
+        <v>900</v>
+      </c>
+      <c r="E36" s="17">
+        <f>IF(SUM(E12:E35)&gt;0, SUM(E12:E35),"")</f>
+        <v>52</v>
+      </c>
+      <c r="F36" s="17">
+        <f>IF(SUM(F12:F35)&gt;0, SUM(F12:F35),"")</f>
+        <v>387</v>
+      </c>
+      <c r="G36" s="17">
+        <f>IF(SUM(G12:G35)&gt;0, SUM(G12:G35),"")</f>
+        <v>276</v>
+      </c>
+      <c r="H36" s="17" t="str">
+        <f>IF(SUM(H12:H35)&gt;0, SUM(H12:H35),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="17" t="str">
+        <f>IF(SUM(I12:I35)&gt;0, SUM(I12:I35),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="17">
+        <f>IF(SUM(J12:J35)&gt;0, SUM(J12:J35),"")</f>
+        <v>287.37</v>
+      </c>
+      <c r="K36" s="17">
+        <f>IF(SUM(K12:K35)&gt;0, SUM(K12:K35),"")</f>
+        <v>350</v>
+      </c>
+      <c r="L36" s="17">
+        <f>IF(SUM(L12:L35)&gt;0, SUM(L12:L35),"")</f>
+        <v>1195.58</v>
+      </c>
+      <c r="M36" s="17">
+        <f>IF(SUM(M12:M35)&gt;0, SUM(M12:M35),"")</f>
+        <v>3986.1500000000005</v>
+      </c>
+      <c r="N36" s="17">
+        <f>IF(SUM(N12:N35)&gt;0, SUM(N12:N35),"")</f>
+        <v>4010.68</v>
+      </c>
+      <c r="O36" s="17">
+        <f>IF(SUM(O12:O35)&gt;0, SUM(O12:O35),"")</f>
+        <v>6265.3</v>
+      </c>
+      <c r="P36" s="17">
+        <f>IF(SUM(P12:P35)&gt;0, SUM(P12:P35),"")</f>
+        <v>856.6</v>
+      </c>
+      <c r="Q36" s="17">
+        <f>IF(SUM(Q12:Q35)&gt;0, SUM(Q12:Q35),"")</f>
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="13"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="6"/>
+      <c r="D38" s="18">
         <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
         <v>2630</v>
       </c>
-      <c r="E37" s="19">
-        <f>IF(SUM(E9:E34)&gt;0, SUM(E9:E34),"")</f>
+      <c r="E38" s="19">
+        <f>IF(SUM(E9:E35)&gt;0, SUM(E9:E35),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F37" s="19">
-        <f t="shared" ref="F37:P37" si="2">IF(SUM(F9:F34)&gt;0, SUM(F9:F34),"")</f>
-        <v>4475.8999999999996</v>
-      </c>
-      <c r="G37" s="19">
-        <f t="shared" si="2"/>
+      <c r="F38" s="19">
+        <f>IF(SUM(F9:F35)&gt;0, SUM(F9:F35),"")</f>
+        <v>4510.8999999999996</v>
+      </c>
+      <c r="G38" s="19">
+        <f>IF(SUM(G9:G35)&gt;0, SUM(G9:G35),"")</f>
         <v>3225.96</v>
       </c>
-      <c r="H37" s="19">
-        <f t="shared" si="2"/>
+      <c r="H38" s="19">
+        <f>IF(SUM(H9:H35)&gt;0, SUM(H9:H35),"")</f>
         <v>280</v>
       </c>
-      <c r="I37" s="19">
-        <f t="shared" si="2"/>
+      <c r="I38" s="19">
+        <f>IF(SUM(I9:I35)&gt;0, SUM(I9:I35),"")</f>
         <v>1419.8</v>
       </c>
-      <c r="J37" s="19">
-        <f t="shared" si="2"/>
+      <c r="J38" s="19">
+        <f>IF(SUM(J9:J35)&gt;0, SUM(J9:J35),"")</f>
         <v>1977.43</v>
       </c>
-      <c r="K37" s="19">
-        <f t="shared" si="2"/>
+      <c r="K38" s="19">
+        <f>IF(SUM(K9:K35)&gt;0, SUM(K9:K35),"")</f>
         <v>2830</v>
       </c>
-      <c r="L37" s="19">
-        <f t="shared" si="2"/>
-        <v>3540.22</v>
-      </c>
-      <c r="M37" s="19">
-        <f t="shared" si="2"/>
-        <v>3968.2500000000005</v>
-      </c>
-      <c r="N37" s="19">
-        <f t="shared" si="2"/>
+      <c r="L38" s="19">
+        <f>IF(SUM(L9:L35)&gt;0, SUM(L9:L35),"")</f>
+        <v>3547.72</v>
+      </c>
+      <c r="M38" s="19">
+        <f>IF(SUM(M9:M35)&gt;0, SUM(M9:M35),"")</f>
+        <v>3986.1500000000005</v>
+      </c>
+      <c r="N38" s="19">
+        <f>IF(SUM(N9:N35)&gt;0, SUM(N9:N35),"")</f>
         <v>4010.68</v>
       </c>
-      <c r="O37" s="19">
-        <f t="shared" si="2"/>
+      <c r="O38" s="19">
+        <f>IF(SUM(O9:O35)&gt;0, SUM(O9:O35),"")</f>
         <v>6265.3</v>
       </c>
-      <c r="P37" s="19">
-        <f t="shared" si="2"/>
+      <c r="P38" s="19">
+        <f>IF(SUM(P9:P35)&gt;0, SUM(P9:P35),"")</f>
         <v>3841.18</v>
       </c>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O38" s="5" t="s">
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P38" s="29">
-        <f>SUM(D37:P37)</f>
-        <v>39266.080000000002</v>
-      </c>
-      <c r="Q38" s="28">
-        <f>IF(SUM(Q9:Q34)&gt;0, SUM(Q9:Q34),"")</f>
+      <c r="P39" s="29">
+        <f>SUM(D38:P38)</f>
+        <v>39326.480000000003</v>
+      </c>
+      <c r="Q39" s="28">
+        <f>IF(SUM(Q9:Q35)&gt;0, SUM(Q9:Q35),"")</f>
         <v>47550</v>
       </c>
     </row>
-    <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O39" s="6" t="s">
+    <row r="40" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P39" s="39">
-        <f>SUM(P38:Q38)</f>
-        <v>86816.08</v>
-      </c>
-      <c r="Q39" s="40"/>
-    </row>
-    <row r="40" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="P40" s="40">
+        <f>SUM(P39:Q39)</f>
+        <v>86876.48000000001</v>
+      </c>
+      <c r="Q40" s="41"/>
+    </row>
+    <row r="41" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D11:Q11"/>
     <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12:Q34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D12:Q35">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="300" windowWidth="20025" windowHeight="7725"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="20025" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -519,13 +519,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -756,7 +749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$36:$Q$36</c:f>
+              <c:f>Plan1!$D$39:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -785,7 +778,7 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1195.58</c:v>
+                  <c:v>1226.3799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -794,13 +787,13 @@
                   <c:v>4010.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6265.3</c:v>
+                  <c:v>6317.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>856.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12550</c:v>
+                  <c:v>13675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$D$38:$P$38,Plan1!$Q$39)</c:f>
+              <c:f>(Plan1!$D$41:$P$41,Plan1!$Q$42)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -894,7 +887,7 @@
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3547.72</c:v>
+                  <c:v>3578.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -903,13 +896,13 @@
                   <c:v>4010.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6265.3</c:v>
+                  <c:v>6317.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3841.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47550</c:v>
+                  <c:v>48675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,11 +918,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="319723776"/>
-        <c:axId val="319737856"/>
+        <c:axId val="296859904"/>
+        <c:axId val="296869888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319723776"/>
+        <c:axId val="296859904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +931,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319737856"/>
+        <c:crossAx val="296869888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -946,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319737856"/>
+        <c:axId val="296869888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +955,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="319723776"/>
+        <c:crossAx val="296859904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -999,13 +992,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>205317</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>210609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>460376</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1063,7 +1056,7 @@
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
-            <v>47550</v>
+            <v>48675</v>
           </cell>
         </row>
       </sheetData>
@@ -1363,14 +1356,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="C4:Q41"/>
+  <dimension ref="C4:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,59 +1424,59 @@
         <v>19</v>
       </c>
       <c r="D6" s="22">
-        <f>COUNT(D9,D12:D35)</f>
+        <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D38)</f>
         <v>10</v>
       </c>
       <c r="E6" s="22">
-        <f>COUNT(E9,E12:E35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F6" s="22">
-        <f>COUNT(F9,F12:F35)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G6" s="22">
-        <f>COUNT(G9,G12:G35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H6" s="22">
-        <f>COUNT(H9,H12:H35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" s="22">
-        <f>COUNT(I9,I12:I35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6" s="22">
-        <f>COUNT(J9,J12:J35)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K6" s="22">
-        <f>COUNT(K9,K12:K35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L6" s="22">
-        <f>COUNT(L9,L12:L35)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="M6" s="22">
-        <f>COUNT(M9,M12:M35)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N6" s="22">
-        <f>COUNT(N9,N12:N35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O6" s="22">
-        <f>COUNT(O9,O12:O35)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="P6" s="22">
-        <f>COUNT(P9,P12:P35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q6" s="34">
-        <f>COUNT(Q9,Q12:Q35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2114,7 +2107,9 @@
       <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="25"/>
+      <c r="C33" s="25">
+        <v>44763</v>
+      </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -2123,29 +2118,33 @@
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="L33" s="30">
+        <v>30.8</v>
+      </c>
       <c r="M33" s="32"/>
       <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
+      <c r="O33" s="30">
+        <v>51.8</v>
+      </c>
       <c r="P33" s="30"/>
       <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="4"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
@@ -2158,77 +2157,32 @@
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
-      <c r="Q35" s="31">
-        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>12550</v>
-      </c>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="D36" s="17">
-        <f>IF(SUM(D12:D35)&gt;0, SUM(D12:D35),"")</f>
-        <v>900</v>
-      </c>
-      <c r="E36" s="17">
-        <f>IF(SUM(E12:E35)&gt;0, SUM(E12:E35),"")</f>
-        <v>52</v>
-      </c>
-      <c r="F36" s="17">
-        <f>IF(SUM(F12:F35)&gt;0, SUM(F12:F35),"")</f>
-        <v>387</v>
-      </c>
-      <c r="G36" s="17">
-        <f>IF(SUM(G12:G35)&gt;0, SUM(G12:G35),"")</f>
-        <v>276</v>
-      </c>
-      <c r="H36" s="17" t="str">
-        <f>IF(SUM(H12:H35)&gt;0, SUM(H12:H35),"")</f>
-        <v/>
-      </c>
-      <c r="I36" s="17" t="str">
-        <f>IF(SUM(I12:I35)&gt;0, SUM(I12:I35),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="17">
-        <f>IF(SUM(J12:J35)&gt;0, SUM(J12:J35),"")</f>
-        <v>287.37</v>
-      </c>
-      <c r="K36" s="17">
-        <f>IF(SUM(K12:K35)&gt;0, SUM(K12:K35),"")</f>
-        <v>350</v>
-      </c>
-      <c r="L36" s="17">
-        <f>IF(SUM(L12:L35)&gt;0, SUM(L12:L35),"")</f>
-        <v>1195.58</v>
-      </c>
-      <c r="M36" s="17">
-        <f>IF(SUM(M12:M35)&gt;0, SUM(M12:M35),"")</f>
-        <v>3986.1500000000005</v>
-      </c>
-      <c r="N36" s="17">
-        <f>IF(SUM(N12:N35)&gt;0, SUM(N12:N35),"")</f>
-        <v>4010.68</v>
-      </c>
-      <c r="O36" s="17">
-        <f>IF(SUM(O12:O35)&gt;0, SUM(O12:O35),"")</f>
-        <v>6265.3</v>
-      </c>
-      <c r="P36" s="17">
-        <f>IF(SUM(P12:P35)&gt;0, SUM(P12:P35),"")</f>
-        <v>856.6</v>
-      </c>
-      <c r="Q36" s="17">
-        <f>IF(SUM(Q12:Q35)&gt;0, SUM(Q12:Q35),"")</f>
-        <v>12550</v>
-      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="13"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2240,101 +2194,197 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="9"/>
+      <c r="P37" s="3"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="18">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="25"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31">
+        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C39" s="13"/>
+      <c r="D39" s="17">
+        <f t="shared" ref="D39:Q39" si="1">IF(SUM(D12:D38)&gt;0, SUM(D12:D38),"")</f>
+        <v>900</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="H39" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I39" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="1"/>
+        <v>287.37</v>
+      </c>
+      <c r="K39" s="17">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" si="1"/>
+        <v>1226.3799999999999</v>
+      </c>
+      <c r="M39" s="17">
+        <f t="shared" si="1"/>
+        <v>3986.1500000000005</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" si="1"/>
+        <v>4010.68</v>
+      </c>
+      <c r="O39" s="17">
+        <f t="shared" si="1"/>
+        <v>6317.1</v>
+      </c>
+      <c r="P39" s="17">
+        <f t="shared" si="1"/>
+        <v>856.6</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="1"/>
+        <v>13675</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C40" s="13"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="6"/>
+      <c r="D41" s="18">
         <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
         <v>2630</v>
       </c>
-      <c r="E38" s="19">
-        <f>IF(SUM(E9:E35)&gt;0, SUM(E9:E35),"")</f>
+      <c r="E41" s="19">
+        <f t="shared" ref="E41:P41" si="2">IF(SUM(E9:E38)&gt;0, SUM(E9:E38),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F38" s="19">
-        <f>IF(SUM(F9:F35)&gt;0, SUM(F9:F35),"")</f>
+      <c r="F41" s="19">
+        <f t="shared" si="2"/>
         <v>4510.8999999999996</v>
       </c>
-      <c r="G38" s="19">
-        <f>IF(SUM(G9:G35)&gt;0, SUM(G9:G35),"")</f>
+      <c r="G41" s="19">
+        <f t="shared" si="2"/>
         <v>3225.96</v>
       </c>
-      <c r="H38" s="19">
-        <f>IF(SUM(H9:H35)&gt;0, SUM(H9:H35),"")</f>
+      <c r="H41" s="19">
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="I38" s="19">
-        <f>IF(SUM(I9:I35)&gt;0, SUM(I9:I35),"")</f>
+      <c r="I41" s="19">
+        <f t="shared" si="2"/>
         <v>1419.8</v>
       </c>
-      <c r="J38" s="19">
-        <f>IF(SUM(J9:J35)&gt;0, SUM(J9:J35),"")</f>
+      <c r="J41" s="19">
+        <f t="shared" si="2"/>
         <v>1977.43</v>
       </c>
-      <c r="K38" s="19">
-        <f>IF(SUM(K9:K35)&gt;0, SUM(K9:K35),"")</f>
+      <c r="K41" s="19">
+        <f t="shared" si="2"/>
         <v>2830</v>
       </c>
-      <c r="L38" s="19">
-        <f>IF(SUM(L9:L35)&gt;0, SUM(L9:L35),"")</f>
-        <v>3547.72</v>
-      </c>
-      <c r="M38" s="19">
-        <f>IF(SUM(M9:M35)&gt;0, SUM(M9:M35),"")</f>
+      <c r="L41" s="19">
+        <f t="shared" si="2"/>
+        <v>3578.52</v>
+      </c>
+      <c r="M41" s="19">
+        <f t="shared" si="2"/>
         <v>3986.1500000000005</v>
       </c>
-      <c r="N38" s="19">
-        <f>IF(SUM(N9:N35)&gt;0, SUM(N9:N35),"")</f>
+      <c r="N41" s="19">
+        <f t="shared" si="2"/>
         <v>4010.68</v>
       </c>
-      <c r="O38" s="19">
-        <f>IF(SUM(O9:O35)&gt;0, SUM(O9:O35),"")</f>
-        <v>6265.3</v>
-      </c>
-      <c r="P38" s="19">
-        <f>IF(SUM(P9:P35)&gt;0, SUM(P9:P35),"")</f>
+      <c r="O41" s="19">
+        <f t="shared" si="2"/>
+        <v>6317.1</v>
+      </c>
+      <c r="P41" s="19">
+        <f t="shared" si="2"/>
         <v>3841.18</v>
       </c>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O39" s="5" t="s">
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P39" s="29">
-        <f>SUM(D38:P38)</f>
-        <v>39326.480000000003</v>
-      </c>
-      <c r="Q39" s="28">
-        <f>IF(SUM(Q9:Q35)&gt;0, SUM(Q9:Q35),"")</f>
-        <v>47550</v>
-      </c>
-    </row>
-    <row r="40" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O40" s="6" t="s">
+      <c r="P42" s="29">
+        <f>SUM(D41:P41)</f>
+        <v>39409.08</v>
+      </c>
+      <c r="Q42" s="28">
+        <f>IF(SUM(Q9:Q38)&gt;0, SUM(Q9:Q38),"")</f>
+        <v>48675</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P40" s="40">
-        <f>SUM(P39:Q39)</f>
-        <v>86876.48000000001</v>
-      </c>
-      <c r="Q40" s="41"/>
-    </row>
-    <row r="41" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="P43" s="40">
+        <f>SUM(P42:Q42)</f>
+        <v>88084.08</v>
+      </c>
+      <c r="Q43" s="41"/>
+    </row>
+    <row r="44" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D11:Q11"/>
     <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P43:Q43"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12:Q35">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D12:Q38">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -507,7 +507,175 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -778,7 +946,7 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1226.3799999999999</c:v>
+                  <c:v>1256.3799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -790,10 +958,10 @@
                   <c:v>6317.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>856.6</c:v>
+                  <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13675</c:v>
+                  <c:v>14575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +1055,7 @@
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3578.52</c:v>
+                  <c:v>3608.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -899,10 +1067,10 @@
                   <c:v>6317.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3841.18</c:v>
+                  <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48675</c:v>
+                  <c:v>49575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,11 +1086,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="296859904"/>
-        <c:axId val="296869888"/>
+        <c:axId val="309947008"/>
+        <c:axId val="311198080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296859904"/>
+        <c:axId val="309947008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +1099,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296869888"/>
+        <c:crossAx val="311198080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -939,7 +1107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296869888"/>
+        <c:axId val="311198080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +1123,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="296859904"/>
+        <c:crossAx val="309947008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1042,27 +1210,27 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
-            <v>48675</v>
+            <v>49575</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1359,11 +1527,11 @@
   <dimension ref="C4:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1625,7 @@
       </c>
       <c r="L6" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="22">
         <f t="shared" si="0"/>
@@ -1473,7 +1641,7 @@
       </c>
       <c r="P6" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="34">
         <f t="shared" si="0"/>
@@ -2066,71 +2234,73 @@
       <c r="C31" s="25">
         <v>44761</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="31"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32" s="25">
         <v>44762</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30">
         <v>35</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3">
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30">
         <v>7.5</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="30">
         <v>17.899999999999999</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="25">
         <v>44763</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
         <v>30.8</v>
       </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3">
         <v>51.8</v>
       </c>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="31"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="25"/>
+      <c r="C34" s="25">
+        <v>44764</v>
+      </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -2139,29 +2309,33 @@
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="32"/>
+      <c r="L34" s="30">
+        <v>30</v>
+      </c>
+      <c r="M34" s="30"/>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
+      <c r="P34" s="30">
+        <v>12</v>
+      </c>
       <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="31"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="25"/>
@@ -2174,7 +2348,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
-      <c r="M36" s="32"/>
+      <c r="M36" s="30"/>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
@@ -2214,7 +2388,7 @@
       <c r="P38" s="30"/>
       <c r="Q38" s="31">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>13675</v>
+        <v>14575</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
@@ -2253,7 +2427,7 @@
       </c>
       <c r="L39" s="17">
         <f t="shared" si="1"/>
-        <v>1226.3799999999999</v>
+        <v>1256.3799999999999</v>
       </c>
       <c r="M39" s="17">
         <f t="shared" si="1"/>
@@ -2269,11 +2443,11 @@
       </c>
       <c r="P39" s="17">
         <f t="shared" si="1"/>
-        <v>856.6</v>
+        <v>868.6</v>
       </c>
       <c r="Q39" s="17">
         <f t="shared" si="1"/>
-        <v>13675</v>
+        <v>14575</v>
       </c>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
@@ -2329,7 +2503,7 @@
       </c>
       <c r="L41" s="19">
         <f t="shared" si="2"/>
-        <v>3578.52</v>
+        <v>3608.52</v>
       </c>
       <c r="M41" s="19">
         <f t="shared" si="2"/>
@@ -2345,7 +2519,7 @@
       </c>
       <c r="P41" s="19">
         <f t="shared" si="2"/>
-        <v>3841.18</v>
+        <v>3853.18</v>
       </c>
       <c r="Q41" s="10"/>
     </row>
@@ -2355,11 +2529,11 @@
       </c>
       <c r="P42" s="29">
         <f>SUM(D41:P41)</f>
-        <v>39409.08</v>
+        <v>39451.08</v>
       </c>
       <c r="Q42" s="28">
         <f>IF(SUM(Q9:Q38)&gt;0, SUM(Q9:Q38),"")</f>
-        <v>48675</v>
+        <v>49575</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2368,7 +2542,7 @@
       </c>
       <c r="P43" s="40">
         <f>SUM(P42:Q42)</f>
-        <v>88084.08</v>
+        <v>89026.08</v>
       </c>
       <c r="Q43" s="41"/>
     </row>
@@ -2379,11 +2553,59 @@
     <mergeCell ref="D7:Q7"/>
     <mergeCell ref="P43:Q43"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12:Q38">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D12:Q30 D37:Q38">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:Q35">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:Q33">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:Q31">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:Q32">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:Q36">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:Q34">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +479,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -503,95 +508,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -974,6 +896,16 @@
             <c:v>Totais Geral</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Plan1!$D$5:$Q$5</c:f>
@@ -1086,11 +1018,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="309947008"/>
-        <c:axId val="311198080"/>
+        <c:axId val="312785152"/>
+        <c:axId val="312795136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="309947008"/>
+        <c:axId val="312785152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311198080"/>
+        <c:crossAx val="312795136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1107,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311198080"/>
+        <c:axId val="312795136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1055,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="309947008"/>
+        <c:crossAx val="312785152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,11 +1459,11 @@
   <dimension ref="C4:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1575,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1652,22 +1584,22 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
@@ -1729,7 +1661,7 @@
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <f>SUM(D9:Q9)</f>
         <v>55859.8</v>
       </c>
@@ -1750,43 +1682,43 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="25">
         <v>44730</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29">
         <v>491.06</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" s="25">
@@ -1815,22 +1747,22 @@
       <c r="C14" s="25">
         <v>44735</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29">
         <v>34</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15" s="25">
@@ -1857,22 +1789,22 @@
       <c r="C16" s="25">
         <v>44737</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29">
         <v>6.9</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" s="25">
@@ -1907,28 +1839,28 @@
       <c r="C18" s="25">
         <v>44740</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>100</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29">
         <v>40</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29">
         <v>62.5</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30">
+      <c r="N18" s="29"/>
+      <c r="O18" s="29">
         <v>246.65</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19" s="25">
@@ -1955,22 +1887,22 @@
       <c r="C20" s="25">
         <v>44742</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29">
         <v>5</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" s="25">
@@ -2003,24 +1935,24 @@
       <c r="C22" s="25">
         <v>44744</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29">
         <v>33.5</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30">
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29">
         <v>36</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" s="25">
@@ -2031,13 +1963,13 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="32"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="32"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="32">
+      <c r="M23" s="31">
         <v>138.80000000000001</v>
       </c>
       <c r="N23" s="3"/>
@@ -2051,30 +1983,30 @@
       <c r="C24" s="25">
         <v>44747</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <v>100</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30">
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29">
         <v>48.19</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30">
+      <c r="K24" s="29"/>
+      <c r="L24" s="29">
         <v>273.32</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="29">
         <v>578.72</v>
       </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30">
+      <c r="N24" s="29"/>
+      <c r="O24" s="29">
         <v>147.36000000000001</v>
       </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" s="25">
@@ -2107,28 +2039,28 @@
       <c r="C26" s="25">
         <v>44751</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="29">
         <v>100</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30">
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29">
         <v>420.7</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="29">
         <v>154.9</v>
       </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30">
+      <c r="N26" s="29"/>
+      <c r="O26" s="29">
         <v>1612.3</v>
       </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" s="25">
@@ -2163,22 +2095,22 @@
       <c r="C28" s="25">
         <v>44757</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29">
         <v>142.5</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" s="25">
@@ -2205,30 +2137,30 @@
       <c r="C30" s="25">
         <v>44761</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="35" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="35" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="35" t="s">
+      <c r="M30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="30"/>
-      <c r="O30" s="35" t="s">
+      <c r="N30" s="29"/>
+      <c r="O30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" s="25">
@@ -2253,26 +2185,26 @@
       <c r="C32" s="25">
         <v>44762</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29">
         <v>35</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30">
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29">
         <v>7.5</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="29">
         <v>17.899999999999999</v>
       </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="31"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="25">
@@ -2301,24 +2233,24 @@
       <c r="C34" s="25">
         <v>44764</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29">
         <v>30</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30">
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29">
         <v>12</v>
       </c>
-      <c r="Q34" s="31"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
@@ -2339,20 +2271,20 @@
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="25"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="31"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="30"/>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37" s="25"/>
@@ -2373,20 +2305,20 @@
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C38" s="25"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="31">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="30">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
         <v>14575</v>
       </c>
@@ -2527,11 +2459,11 @@
       <c r="O42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P42" s="29">
+      <c r="P42" s="28">
         <f>SUM(D41:P41)</f>
         <v>39451.08</v>
       </c>
-      <c r="Q42" s="28">
+      <c r="Q42" s="41">
         <f>IF(SUM(Q9:Q38)&gt;0, SUM(Q9:Q38),"")</f>
         <v>49575</v>
       </c>
@@ -2540,11 +2472,11 @@
       <c r="O43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="40">
+      <c r="P43" s="39">
         <f>SUM(P42:Q42)</f>
         <v>89026.08</v>
       </c>
-      <c r="Q43" s="41"/>
+      <c r="Q43" s="40"/>
     </row>
     <row r="44" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2554,58 +2486,58 @@
     <mergeCell ref="P43:Q43"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:Q30 D37:Q38">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Q35">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Q33">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Q31">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Q32">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:Q34">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -490,6 +490,7 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,7 +509,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +883,7 @@
                   <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14575</c:v>
+                  <c:v>15220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,7 +1002,7 @@
                   <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49575</c:v>
+                  <c:v>50220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,11 +1018,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="312785152"/>
-        <c:axId val="312795136"/>
+        <c:axId val="320704512"/>
+        <c:axId val="320706048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312785152"/>
+        <c:axId val="320704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312795136"/>
+        <c:crossAx val="320706048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312795136"/>
+        <c:axId val="320706048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1055,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312785152"/>
+        <c:crossAx val="320704512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,27 +1142,27 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
-            <v>49575</v>
+            <v>50220</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1584,22 +1584,22 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
@@ -1682,22 +1682,22 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="25">
@@ -2320,7 +2320,7 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="30">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>14575</v>
+        <v>15220</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="Q39" s="17">
         <f t="shared" si="1"/>
-        <v>14575</v>
+        <v>15220</v>
       </c>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
@@ -2463,20 +2463,20 @@
         <f>SUM(D41:P41)</f>
         <v>39451.08</v>
       </c>
-      <c r="Q42" s="41">
+      <c r="Q42" s="35">
         <f>IF(SUM(Q9:Q38)&gt;0, SUM(Q9:Q38),"")</f>
-        <v>49575</v>
+        <v>50220</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="39">
+      <c r="P43" s="40">
         <f>SUM(P42:Q42)</f>
-        <v>89026.08</v>
-      </c>
-      <c r="Q43" s="40"/>
+        <v>89671.08</v>
+      </c>
+      <c r="Q43" s="41"/>
     </row>
     <row r="44" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -513,7 +513,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -839,12 +923,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$39:$Q$39</c:f>
+              <c:f>Plan1!$D$43:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
@@ -868,7 +952,7 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1256.3799999999999</c:v>
+                  <c:v>1370.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -883,7 +967,7 @@
                   <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15220</c:v>
+                  <c:v>16270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +1042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$D$41:$P$41,Plan1!$Q$42)</c:f>
+              <c:f>(Plan1!$D$45:$P$45,Plan1!$Q$46)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -987,7 +1071,7 @@
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3608.52</c:v>
+                  <c:v>3722.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -1002,7 +1086,7 @@
                   <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50220</c:v>
+                  <c:v>51270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,11 +1102,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="320704512"/>
-        <c:axId val="320706048"/>
+        <c:axId val="350342144"/>
+        <c:axId val="351748864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320704512"/>
+        <c:axId val="350342144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1115,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320706048"/>
+        <c:crossAx val="351748864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320706048"/>
+        <c:axId val="351748864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1139,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="320704512"/>
+        <c:crossAx val="350342144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,13 +1176,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>205317</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>210609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>460376</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1142,27 +1226,27 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
-            <v>50220</v>
+            <v>51270</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1456,14 +1540,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="C4:Q44"/>
+  <dimension ref="C4:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,8 +1608,8 @@
         <v>19</v>
       </c>
       <c r="D6" s="22">
-        <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D38)</f>
-        <v>10</v>
+        <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D42)</f>
+        <v>12</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="0"/>
@@ -1557,7 +1641,7 @@
       </c>
       <c r="L6" s="22">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M6" s="22">
         <f t="shared" si="0"/>
@@ -2253,8 +2337,12 @@
       <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="25"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="25">
+        <v>44767</v>
+      </c>
+      <c r="D35" s="3">
+        <v>80</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2262,7 +2350,9 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3">
+        <v>37.700000000000003</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2270,121 +2360,88 @@
       <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="25"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
+      <c r="C36" s="25">
+        <v>44768</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
+        <v>65.23</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="25"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="4"/>
+      <c r="C37" s="25">
+        <v>44769</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29">
+        <v>10.9</v>
+      </c>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C38" s="25"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="30">
-        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>15220</v>
-      </c>
+      <c r="C38" s="25">
+        <v>44771</v>
+      </c>
+      <c r="D38" s="3">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="D39" s="17">
-        <f t="shared" ref="D39:Q39" si="1">IF(SUM(D12:D38)&gt;0, SUM(D12:D38),"")</f>
-        <v>900</v>
-      </c>
-      <c r="E39" s="17">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="F39" s="17">
-        <f t="shared" si="1"/>
-        <v>387</v>
-      </c>
-      <c r="G39" s="17">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="H39" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I39" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J39" s="17">
-        <f t="shared" si="1"/>
-        <v>287.37</v>
-      </c>
-      <c r="K39" s="17">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L39" s="17">
-        <f t="shared" si="1"/>
-        <v>1256.3799999999999</v>
-      </c>
-      <c r="M39" s="17">
-        <f t="shared" si="1"/>
-        <v>3986.1500000000005</v>
-      </c>
-      <c r="N39" s="17">
-        <f t="shared" si="1"/>
-        <v>4010.68</v>
-      </c>
-      <c r="O39" s="17">
-        <f t="shared" si="1"/>
-        <v>6317.1</v>
-      </c>
-      <c r="P39" s="17">
-        <f t="shared" si="1"/>
-        <v>868.6</v>
-      </c>
-      <c r="Q39" s="17">
-        <f t="shared" si="1"/>
-        <v>15220</v>
-      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="30"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2396,148 +2453,285 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="9"/>
+      <c r="P40" s="3"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="6"/>
-      <c r="D41" s="18">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C41" s="25"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C42" s="25"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="30">
+        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
+        <v>16270</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C43" s="13"/>
+      <c r="D43" s="17">
+        <f t="shared" ref="D43:Q43" si="1">IF(SUM(D12:D42)&gt;0, SUM(D12:D42),"")</f>
+        <v>1080</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F43" s="17">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="H43" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I43" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" si="1"/>
+        <v>287.37</v>
+      </c>
+      <c r="K43" s="17">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="L43" s="17">
+        <f t="shared" si="1"/>
+        <v>1370.21</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" si="1"/>
+        <v>3986.1500000000005</v>
+      </c>
+      <c r="N43" s="17">
+        <f t="shared" si="1"/>
+        <v>4010.68</v>
+      </c>
+      <c r="O43" s="17">
+        <f t="shared" si="1"/>
+        <v>6317.1</v>
+      </c>
+      <c r="P43" s="17">
+        <f t="shared" si="1"/>
+        <v>868.6</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" si="1"/>
+        <v>16270</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C44" s="13"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="6"/>
+      <c r="D45" s="18">
         <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
         <v>2630</v>
       </c>
-      <c r="E41" s="19">
-        <f t="shared" ref="E41:P41" si="2">IF(SUM(E9:E38)&gt;0, SUM(E9:E38),"")</f>
+      <c r="E45" s="19">
+        <f t="shared" ref="E45:P45" si="2">IF(SUM(E9:E42)&gt;0, SUM(E9:E42),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F45" s="19">
         <f t="shared" si="2"/>
         <v>4510.8999999999996</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G45" s="19">
         <f t="shared" si="2"/>
         <v>3225.96</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H45" s="19">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I45" s="19">
         <f t="shared" si="2"/>
         <v>1419.8</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J45" s="19">
         <f t="shared" si="2"/>
         <v>1977.43</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K45" s="19">
         <f t="shared" si="2"/>
         <v>2830</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L45" s="19">
         <f t="shared" si="2"/>
-        <v>3608.52</v>
-      </c>
-      <c r="M41" s="19">
+        <v>3722.35</v>
+      </c>
+      <c r="M45" s="19">
         <f t="shared" si="2"/>
         <v>3986.1500000000005</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N45" s="19">
         <f t="shared" si="2"/>
         <v>4010.68</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O45" s="19">
         <f t="shared" si="2"/>
         <v>6317.1</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P45" s="19">
         <f t="shared" si="2"/>
         <v>3853.18</v>
       </c>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O42" s="5" t="s">
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P42" s="28">
-        <f>SUM(D41:P41)</f>
-        <v>39451.08</v>
-      </c>
-      <c r="Q42" s="35">
-        <f>IF(SUM(Q9:Q38)&gt;0, SUM(Q9:Q38),"")</f>
-        <v>50220</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O43" s="6" t="s">
+      <c r="P46" s="28">
+        <f>SUM(D45:P45)</f>
+        <v>39564.910000000003</v>
+      </c>
+      <c r="Q46" s="35">
+        <f>IF(SUM(Q9:Q42)&gt;0, SUM(Q9:Q42),"")</f>
+        <v>51270</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="40">
-        <f>SUM(P42:Q42)</f>
-        <v>89671.08</v>
-      </c>
-      <c r="Q43" s="41"/>
-    </row>
-    <row r="44" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="P47" s="40">
+        <f>SUM(P46:Q46)</f>
+        <v>90834.91</v>
+      </c>
+      <c r="Q47" s="41"/>
+    </row>
+    <row r="48" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D11:Q11"/>
     <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P47:Q47"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12:Q30 D37:Q38">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="D12:Q30 D41:Q42">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Q35">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Q33">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Q31">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Q32">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:Q37 D39:Q39">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:Q34">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:Q34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D38:Q38">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:Q40">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -513,49 +513,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -967,7 +925,7 @@
                   <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16270</c:v>
+                  <c:v>16660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1044,7 @@
                   <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51270</c:v>
+                  <c:v>51660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,11 +1060,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="350342144"/>
-        <c:axId val="351748864"/>
+        <c:axId val="348170880"/>
+        <c:axId val="348505984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350342144"/>
+        <c:axId val="348170880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1073,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="351748864"/>
+        <c:crossAx val="348505984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351748864"/>
+        <c:axId val="348505984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1097,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="350342144"/>
+        <c:crossAx val="348170880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1226,27 +1184,27 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="9">
           <cell r="C9">
-            <v>51270</v>
+            <v>51660</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2490,7 +2448,7 @@
       <c r="P42" s="29"/>
       <c r="Q42" s="30">
         <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>16270</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
@@ -2549,7 +2507,7 @@
       </c>
       <c r="Q43" s="17">
         <f t="shared" si="1"/>
-        <v>16270</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
@@ -2635,7 +2593,7 @@
       </c>
       <c r="Q46" s="35">
         <f>IF(SUM(Q9:Q42)&gt;0, SUM(Q9:Q42),"")</f>
-        <v>51270</v>
+        <v>51660</v>
       </c>
     </row>
     <row r="47" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2644,7 +2602,7 @@
       </c>
       <c r="P47" s="40">
         <f>SUM(P46:Q46)</f>
-        <v>90834.91</v>
+        <v>91224.91</v>
       </c>
       <c r="Q47" s="41"/>
     </row>
@@ -2656,82 +2614,82 @@
     <mergeCell ref="P47:Q47"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:Q30 D41:Q42">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Q35">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Q33">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Q31">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Q32">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:Q37 D39:Q39">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:Q34">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:Q38">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:Q40">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Combustível</t>
   </si>
@@ -430,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -507,6 +507,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,7 +913,7 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1370.21</c:v>
+                  <c:v>1221.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -1029,7 +1032,7 @@
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3722.35</c:v>
+                  <c:v>3573.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3986.1500000000005</c:v>
@@ -1060,11 +1063,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="348170880"/>
-        <c:axId val="348505984"/>
+        <c:axId val="345939328"/>
+        <c:axId val="346363008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348170880"/>
+        <c:axId val="345939328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348505984"/>
+        <c:crossAx val="346363008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348505984"/>
+        <c:axId val="346363008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1100,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="348170880"/>
+        <c:crossAx val="345939328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1501,11 +1504,11 @@
   <dimension ref="C4:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1602,7 @@
       </c>
       <c r="L6" s="22">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M6" s="22">
         <f t="shared" si="0"/>
@@ -2216,7 +2219,9 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>-148.61000000000001</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2311,9 +2316,13 @@
       <c r="L35" s="3">
         <v>37.700000000000003</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="O35" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="4"/>
     </row>
@@ -2487,7 +2496,7 @@
       </c>
       <c r="L43" s="17">
         <f t="shared" si="1"/>
-        <v>1370.21</v>
+        <v>1221.5999999999999</v>
       </c>
       <c r="M43" s="17">
         <f t="shared" si="1"/>
@@ -2563,7 +2572,7 @@
       </c>
       <c r="L45" s="19">
         <f t="shared" si="2"/>
-        <v>3722.35</v>
+        <v>3573.74</v>
       </c>
       <c r="M45" s="19">
         <f t="shared" si="2"/>
@@ -2589,7 +2598,7 @@
       </c>
       <c r="P46" s="28">
         <f>SUM(D45:P45)</f>
-        <v>39564.910000000003</v>
+        <v>39416.300000000003</v>
       </c>
       <c r="Q46" s="35">
         <f>IF(SUM(Q9:Q42)&gt;0, SUM(Q9:Q42),"")</f>
@@ -2602,7 +2611,7 @@
       </c>
       <c r="P47" s="40">
         <f>SUM(P46:Q46)</f>
-        <v>91224.91</v>
+        <v>91076.3</v>
       </c>
       <c r="Q47" s="41"/>
     </row>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="20025" windowHeight="7665"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="20025" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -491,6 +491,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,9 +510,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,7 +884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$43:$Q$43</c:f>
+              <c:f>Plan1!$D$44:$Q$44</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -907,7 +907,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>287.37</c:v>
+                  <c:v>302.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>350</c:v>
@@ -919,7 +919,7 @@
                   <c:v>3986.1500000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4010.68</c:v>
+                  <c:v>4130.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6317.1</c:v>
@@ -928,7 +928,7 @@
                   <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16660</c:v>
+                  <c:v>17485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$D$45:$P$45,Plan1!$Q$46)</c:f>
+              <c:f>(Plan1!$D$46:$P$46,Plan1!$Q$47)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1026,7 +1026,7 @@
                   <c:v>1419.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1977.43</c:v>
+                  <c:v>1992.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2830</c:v>
@@ -1038,7 +1038,7 @@
                   <c:v>3986.1500000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4010.68</c:v>
+                  <c:v>4130.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6317.1</c:v>
@@ -1047,7 +1047,7 @@
                   <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51660</c:v>
+                  <c:v>52485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,11 +1063,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="345939328"/>
-        <c:axId val="346363008"/>
+        <c:axId val="317381632"/>
+        <c:axId val="299172608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345939328"/>
+        <c:axId val="317381632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346363008"/>
+        <c:crossAx val="299172608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346363008"/>
+        <c:axId val="299172608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="345939328"/>
+        <c:crossAx val="317381632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1137,13 +1137,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>205317</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>210609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>460376</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1187,27 +1187,27 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
-        <row r="9">
-          <cell r="C9">
-            <v>51660</v>
+        <row r="10">
+          <cell r="C10">
+            <v>52485</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1501,14 +1501,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="C4:Q48"/>
+  <dimension ref="C4:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,59 +1569,59 @@
         <v>19</v>
       </c>
       <c r="D6" s="22">
-        <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D42)</f>
+        <f>COUNT(D9,D12:D43)</f>
         <v>12</v>
       </c>
       <c r="E6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(E9,E12:E43)</f>
         <v>3</v>
       </c>
       <c r="F6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(F9,F12:F43)</f>
         <v>6</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(G9,G12:G43)</f>
         <v>2</v>
       </c>
       <c r="H6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(H9,H12:H43)</f>
         <v>1</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(I9,I12:I43)</f>
         <v>1</v>
       </c>
       <c r="J6" s="22">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>COUNT(J9,J12:J43)</f>
+        <v>12</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(K9,K12:K43)</f>
         <v>2</v>
       </c>
       <c r="L6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(L9,L12:L43)</f>
         <v>12</v>
       </c>
       <c r="M6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(M9,M12:M43)</f>
         <v>8</v>
       </c>
       <c r="N6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNT(N9,N12:N43)</f>
+        <v>2</v>
       </c>
       <c r="O6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(O9,O12:O43)</f>
         <v>7</v>
       </c>
       <c r="P6" s="22">
-        <f t="shared" si="0"/>
+        <f>COUNT(P9,P12:P43)</f>
         <v>3</v>
       </c>
       <c r="Q6" s="33">
-        <f t="shared" si="0"/>
+        <f>COUNT(Q9,Q12:Q43)</f>
         <v>2</v>
       </c>
     </row>
@@ -1629,22 +1629,22 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="25">
@@ -2316,11 +2316,11 @@
       <c r="L35" s="3">
         <v>37.700000000000003</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="36" t="s">
         <v>20</v>
       </c>
       <c r="N35" s="3"/>
-      <c r="O35" s="42" t="s">
+      <c r="O35" s="36" t="s">
         <v>20</v>
       </c>
       <c r="P35" s="3"/>
@@ -2390,38 +2390,44 @@
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C39" s="25"/>
+      <c r="C39" s="25">
+        <v>44774</v>
+      </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="J39" s="29">
+        <v>15</v>
+      </c>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="29">
+        <v>120</v>
+      </c>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C40" s="25"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="4"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="25"/>
@@ -2442,187 +2448,204 @@
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C42" s="25"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="30">
-        <f>[1]CUST_Diário_M_Obra!$C$9-Q9</f>
-        <v>16660</v>
-      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C43" s="13"/>
-      <c r="D43" s="17">
-        <f t="shared" ref="D43:Q43" si="1">IF(SUM(D12:D42)&gt;0, SUM(D12:D42),"")</f>
-        <v>1080</v>
-      </c>
-      <c r="E43" s="17">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="F43" s="17">
-        <f t="shared" si="1"/>
-        <v>387</v>
-      </c>
-      <c r="G43" s="17">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="H43" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I43" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J43" s="17">
-        <f t="shared" si="1"/>
-        <v>287.37</v>
-      </c>
-      <c r="K43" s="17">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="L43" s="17">
-        <f t="shared" si="1"/>
-        <v>1221.5999999999999</v>
-      </c>
-      <c r="M43" s="17">
-        <f t="shared" si="1"/>
-        <v>3986.1500000000005</v>
-      </c>
-      <c r="N43" s="17">
-        <f t="shared" si="1"/>
-        <v>4010.68</v>
-      </c>
-      <c r="O43" s="17">
-        <f t="shared" si="1"/>
-        <v>6317.1</v>
-      </c>
-      <c r="P43" s="17">
-        <f t="shared" si="1"/>
-        <v>868.6</v>
-      </c>
-      <c r="Q43" s="17">
-        <f t="shared" si="1"/>
-        <v>16660</v>
+      <c r="C43" s="25"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="30">
+        <f>[1]CUST_Diário_M_Obra!$C$10-Q9</f>
+        <v>17485</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="6"/>
-      <c r="D45" s="18">
+      <c r="D44" s="17">
+        <f>IF(SUM(D12:D43)&gt;0, SUM(D12:D43),"")</f>
+        <v>1080</v>
+      </c>
+      <c r="E44" s="17">
+        <f>IF(SUM(E12:E43)&gt;0, SUM(E12:E43),"")</f>
+        <v>52</v>
+      </c>
+      <c r="F44" s="17">
+        <f>IF(SUM(F12:F43)&gt;0, SUM(F12:F43),"")</f>
+        <v>387</v>
+      </c>
+      <c r="G44" s="17">
+        <f>IF(SUM(G12:G43)&gt;0, SUM(G12:G43),"")</f>
+        <v>276</v>
+      </c>
+      <c r="H44" s="17" t="str">
+        <f>IF(SUM(H12:H43)&gt;0, SUM(H12:H43),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="17" t="str">
+        <f>IF(SUM(I12:I43)&gt;0, SUM(I12:I43),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="17">
+        <f>IF(SUM(J12:J43)&gt;0, SUM(J12:J43),"")</f>
+        <v>302.37</v>
+      </c>
+      <c r="K44" s="17">
+        <f>IF(SUM(K12:K43)&gt;0, SUM(K12:K43),"")</f>
+        <v>350</v>
+      </c>
+      <c r="L44" s="17">
+        <f>IF(SUM(L12:L43)&gt;0, SUM(L12:L43),"")</f>
+        <v>1221.5999999999999</v>
+      </c>
+      <c r="M44" s="17">
+        <f>IF(SUM(M12:M43)&gt;0, SUM(M12:M43),"")</f>
+        <v>3986.1500000000005</v>
+      </c>
+      <c r="N44" s="17">
+        <f>IF(SUM(N12:N43)&gt;0, SUM(N12:N43),"")</f>
+        <v>4130.68</v>
+      </c>
+      <c r="O44" s="17">
+        <f>IF(SUM(O12:O43)&gt;0, SUM(O12:O43),"")</f>
+        <v>6317.1</v>
+      </c>
+      <c r="P44" s="17">
+        <f>IF(SUM(P12:P43)&gt;0, SUM(P12:P43),"")</f>
+        <v>868.6</v>
+      </c>
+      <c r="Q44" s="17">
+        <f>IF(SUM(Q12:Q43)&gt;0, SUM(Q12:Q43),"")</f>
+        <v>17485</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="13"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="6"/>
+      <c r="D46" s="18">
         <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
         <v>2630</v>
       </c>
-      <c r="E45" s="19">
-        <f t="shared" ref="E45:P45" si="2">IF(SUM(E9:E42)&gt;0, SUM(E9:E42),"")</f>
+      <c r="E46" s="19">
+        <f>IF(SUM(E9:E43)&gt;0, SUM(E9:E43),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F45" s="19">
-        <f t="shared" si="2"/>
+      <c r="F46" s="19">
+        <f>IF(SUM(F9:F43)&gt;0, SUM(F9:F43),"")</f>
         <v>4510.8999999999996</v>
       </c>
-      <c r="G45" s="19">
-        <f t="shared" si="2"/>
+      <c r="G46" s="19">
+        <f>IF(SUM(G9:G43)&gt;0, SUM(G9:G43),"")</f>
         <v>3225.96</v>
       </c>
-      <c r="H45" s="19">
-        <f t="shared" si="2"/>
+      <c r="H46" s="19">
+        <f>IF(SUM(H9:H43)&gt;0, SUM(H9:H43),"")</f>
         <v>280</v>
       </c>
-      <c r="I45" s="19">
-        <f t="shared" si="2"/>
+      <c r="I46" s="19">
+        <f>IF(SUM(I9:I43)&gt;0, SUM(I9:I43),"")</f>
         <v>1419.8</v>
       </c>
-      <c r="J45" s="19">
-        <f t="shared" si="2"/>
-        <v>1977.43</v>
-      </c>
-      <c r="K45" s="19">
-        <f t="shared" si="2"/>
+      <c r="J46" s="19">
+        <f>IF(SUM(J9:J43)&gt;0, SUM(J9:J43),"")</f>
+        <v>1992.43</v>
+      </c>
+      <c r="K46" s="19">
+        <f>IF(SUM(K9:K43)&gt;0, SUM(K9:K43),"")</f>
         <v>2830</v>
       </c>
-      <c r="L45" s="19">
-        <f t="shared" si="2"/>
+      <c r="L46" s="19">
+        <f>IF(SUM(L9:L43)&gt;0, SUM(L9:L43),"")</f>
         <v>3573.74</v>
       </c>
-      <c r="M45" s="19">
-        <f t="shared" si="2"/>
+      <c r="M46" s="19">
+        <f>IF(SUM(M9:M43)&gt;0, SUM(M9:M43),"")</f>
         <v>3986.1500000000005</v>
       </c>
-      <c r="N45" s="19">
-        <f t="shared" si="2"/>
-        <v>4010.68</v>
-      </c>
-      <c r="O45" s="19">
-        <f t="shared" si="2"/>
+      <c r="N46" s="19">
+        <f>IF(SUM(N9:N43)&gt;0, SUM(N9:N43),"")</f>
+        <v>4130.68</v>
+      </c>
+      <c r="O46" s="19">
+        <f>IF(SUM(O9:O43)&gt;0, SUM(O9:O43),"")</f>
         <v>6317.1</v>
       </c>
-      <c r="P45" s="19">
-        <f t="shared" si="2"/>
+      <c r="P46" s="19">
+        <f>IF(SUM(P9:P43)&gt;0, SUM(P9:P43),"")</f>
         <v>3853.18</v>
       </c>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O46" s="5" t="s">
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P46" s="28">
-        <f>SUM(D45:P45)</f>
-        <v>39416.300000000003</v>
-      </c>
-      <c r="Q46" s="35">
-        <f>IF(SUM(Q9:Q42)&gt;0, SUM(Q9:Q42),"")</f>
-        <v>51660</v>
-      </c>
-    </row>
-    <row r="47" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O47" s="6" t="s">
+      <c r="P47" s="28">
+        <f>SUM(D46:P46)</f>
+        <v>39551.300000000003</v>
+      </c>
+      <c r="Q47" s="35">
+        <f>IF(SUM(Q9:Q43)&gt;0, SUM(Q9:Q43),"")</f>
+        <v>52485</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P47" s="40">
-        <f>SUM(P46:Q46)</f>
-        <v>91076.3</v>
-      </c>
-      <c r="Q47" s="41"/>
-    </row>
-    <row r="48" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="P48" s="41">
+        <f>SUM(P47:Q47)</f>
+        <v>92036.3</v>
+      </c>
+      <c r="Q48" s="42"/>
+    </row>
+    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D11:Q11"/>
     <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12:Q30 D41:Q42">
+  <conditionalFormatting sqref="D12:Q30 D42:Q43">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2662,7 +2685,7 @@
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:Q37 D39:Q39">
+  <conditionalFormatting sqref="D37:Q37 D39:Q40">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2694,7 +2717,7 @@
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:Q40">
+  <conditionalFormatting sqref="D41:Q41">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -928,7 +928,7 @@
                   <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17485</c:v>
+                  <c:v>18445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1047,7 @@
                   <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52485</c:v>
+                  <c:v>53445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,11 +1063,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="317381632"/>
-        <c:axId val="299172608"/>
+        <c:axId val="340698240"/>
+        <c:axId val="340699776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317381632"/>
+        <c:axId val="340698240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="299172608"/>
+        <c:crossAx val="340699776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299172608"/>
+        <c:axId val="340699776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="317381632"/>
+        <c:crossAx val="340698240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1187,27 +1187,27 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="10">
           <cell r="C10">
-            <v>52485</v>
+            <v>53445</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1504,7 +1504,7 @@
   <dimension ref="C4:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
@@ -1569,59 +1569,59 @@
         <v>19</v>
       </c>
       <c r="D6" s="22">
-        <f>COUNT(D9,D12:D43)</f>
+        <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D43)</f>
         <v>12</v>
       </c>
       <c r="E6" s="22">
-        <f>COUNT(E9,E12:E43)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F6" s="22">
-        <f>COUNT(F9,F12:F43)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G6" s="22">
-        <f>COUNT(G9,G12:G43)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H6" s="22">
-        <f>COUNT(H9,H12:H43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6" s="22">
-        <f>COUNT(I9,I12:I43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6" s="22">
-        <f>COUNT(J9,J12:J43)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K6" s="22">
-        <f>COUNT(K9,K12:K43)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L6" s="22">
-        <f>COUNT(L9,L12:L43)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M6" s="22">
-        <f>COUNT(M9,M12:M43)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N6" s="22">
-        <f>COUNT(N9,N12:N43)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O6" s="22">
-        <f>COUNT(O9,O12:O43)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P6" s="22">
-        <f>COUNT(P9,P12:P43)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q6" s="33">
-        <f>COUNT(Q9,Q12:Q43)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2480,66 +2480,66 @@
       <c r="P43" s="29"/>
       <c r="Q43" s="30">
         <f>[1]CUST_Diário_M_Obra!$C$10-Q9</f>
-        <v>17485</v>
+        <v>18445</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="17">
-        <f>IF(SUM(D12:D43)&gt;0, SUM(D12:D43),"")</f>
+        <f t="shared" ref="D44:Q44" si="1">IF(SUM(D12:D43)&gt;0, SUM(D12:D43),"")</f>
         <v>1080</v>
       </c>
       <c r="E44" s="17">
-        <f>IF(SUM(E12:E43)&gt;0, SUM(E12:E43),"")</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="F44" s="17">
-        <f>IF(SUM(F12:F43)&gt;0, SUM(F12:F43),"")</f>
+        <f t="shared" si="1"/>
         <v>387</v>
       </c>
       <c r="G44" s="17">
-        <f>IF(SUM(G12:G43)&gt;0, SUM(G12:G43),"")</f>
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="H44" s="17" t="str">
-        <f>IF(SUM(H12:H43)&gt;0, SUM(H12:H43),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I44" s="17" t="str">
-        <f>IF(SUM(I12:I43)&gt;0, SUM(I12:I43),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J44" s="17">
-        <f>IF(SUM(J12:J43)&gt;0, SUM(J12:J43),"")</f>
+        <f t="shared" si="1"/>
         <v>302.37</v>
       </c>
       <c r="K44" s="17">
-        <f>IF(SUM(K12:K43)&gt;0, SUM(K12:K43),"")</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="L44" s="17">
-        <f>IF(SUM(L12:L43)&gt;0, SUM(L12:L43),"")</f>
+        <f t="shared" si="1"/>
         <v>1221.5999999999999</v>
       </c>
       <c r="M44" s="17">
-        <f>IF(SUM(M12:M43)&gt;0, SUM(M12:M43),"")</f>
+        <f t="shared" si="1"/>
         <v>3986.1500000000005</v>
       </c>
       <c r="N44" s="17">
-        <f>IF(SUM(N12:N43)&gt;0, SUM(N12:N43),"")</f>
+        <f t="shared" si="1"/>
         <v>4130.68</v>
       </c>
       <c r="O44" s="17">
-        <f>IF(SUM(O12:O43)&gt;0, SUM(O12:O43),"")</f>
+        <f t="shared" si="1"/>
         <v>6317.1</v>
       </c>
       <c r="P44" s="17">
-        <f>IF(SUM(P12:P43)&gt;0, SUM(P12:P43),"")</f>
+        <f t="shared" si="1"/>
         <v>868.6</v>
       </c>
       <c r="Q44" s="17">
-        <f>IF(SUM(Q12:Q43)&gt;0, SUM(Q12:Q43),"")</f>
-        <v>17485</v>
+        <f t="shared" si="1"/>
+        <v>18445</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.25">
@@ -2566,51 +2566,51 @@
         <v>2630</v>
       </c>
       <c r="E46" s="19">
-        <f>IF(SUM(E9:E43)&gt;0, SUM(E9:E43),"")</f>
+        <f t="shared" ref="E46:P46" si="2">IF(SUM(E9:E43)&gt;0, SUM(E9:E43),"")</f>
         <v>801.36</v>
       </c>
       <c r="F46" s="19">
-        <f>IF(SUM(F9:F43)&gt;0, SUM(F9:F43),"")</f>
+        <f t="shared" si="2"/>
         <v>4510.8999999999996</v>
       </c>
       <c r="G46" s="19">
-        <f>IF(SUM(G9:G43)&gt;0, SUM(G9:G43),"")</f>
+        <f t="shared" si="2"/>
         <v>3225.96</v>
       </c>
       <c r="H46" s="19">
-        <f>IF(SUM(H9:H43)&gt;0, SUM(H9:H43),"")</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="I46" s="19">
-        <f>IF(SUM(I9:I43)&gt;0, SUM(I9:I43),"")</f>
+        <f t="shared" si="2"/>
         <v>1419.8</v>
       </c>
       <c r="J46" s="19">
-        <f>IF(SUM(J9:J43)&gt;0, SUM(J9:J43),"")</f>
+        <f t="shared" si="2"/>
         <v>1992.43</v>
       </c>
       <c r="K46" s="19">
-        <f>IF(SUM(K9:K43)&gt;0, SUM(K9:K43),"")</f>
+        <f t="shared" si="2"/>
         <v>2830</v>
       </c>
       <c r="L46" s="19">
-        <f>IF(SUM(L9:L43)&gt;0, SUM(L9:L43),"")</f>
+        <f t="shared" si="2"/>
         <v>3573.74</v>
       </c>
       <c r="M46" s="19">
-        <f>IF(SUM(M9:M43)&gt;0, SUM(M9:M43),"")</f>
+        <f t="shared" si="2"/>
         <v>3986.1500000000005</v>
       </c>
       <c r="N46" s="19">
-        <f>IF(SUM(N9:N43)&gt;0, SUM(N9:N43),"")</f>
+        <f t="shared" si="2"/>
         <v>4130.68</v>
       </c>
       <c r="O46" s="19">
-        <f>IF(SUM(O9:O43)&gt;0, SUM(O9:O43),"")</f>
+        <f t="shared" si="2"/>
         <v>6317.1</v>
       </c>
       <c r="P46" s="19">
-        <f>IF(SUM(P9:P43)&gt;0, SUM(P9:P43),"")</f>
+        <f t="shared" si="2"/>
         <v>3853.18</v>
       </c>
       <c r="Q46" s="10"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="Q47" s="35">
         <f>IF(SUM(Q9:Q43)&gt;0, SUM(Q9:Q43),"")</f>
-        <v>52485</v>
+        <v>53445</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="P48" s="41">
         <f>SUM(P47:Q47)</f>
-        <v>92036.3</v>
+        <v>92996.3</v>
       </c>
       <c r="Q48" s="42"/>
     </row>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -916,10 +916,10 @@
                   <c:v>1221.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3986.1500000000005</c:v>
+                  <c:v>4012.8600000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4130.68</c:v>
+                  <c:v>4320.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6317.1</c:v>
@@ -1035,10 +1035,10 @@
                   <c:v>3573.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3986.1500000000005</c:v>
+                  <c:v>4012.8600000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4130.68</c:v>
+                  <c:v>4320.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6317.1</c:v>
@@ -1063,11 +1063,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="340698240"/>
-        <c:axId val="340699776"/>
+        <c:axId val="307874432"/>
+        <c:axId val="307560832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="340698240"/>
+        <c:axId val="307874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340699776"/>
+        <c:crossAx val="307560832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340699776"/>
+        <c:axId val="307560832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="340698240"/>
+        <c:crossAx val="307874432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,7 +1508,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,11 +1606,11 @@
       </c>
       <c r="M6" s="22">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N6" s="22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" si="0"/>
@@ -2413,7 +2413,9 @@
       <c r="Q39" s="30"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C40" s="25"/>
+      <c r="C40" s="25">
+        <v>44776</v>
+      </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -2423,8 +2425,12 @@
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="M40" s="29">
+        <v>26.71</v>
+      </c>
+      <c r="N40" s="29">
+        <v>190</v>
+      </c>
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="30"/>
@@ -2523,11 +2529,11 @@
       </c>
       <c r="M44" s="17">
         <f t="shared" si="1"/>
-        <v>3986.1500000000005</v>
+        <v>4012.8600000000006</v>
       </c>
       <c r="N44" s="17">
         <f t="shared" si="1"/>
-        <v>4130.68</v>
+        <v>4320.68</v>
       </c>
       <c r="O44" s="17">
         <f t="shared" si="1"/>
@@ -2599,11 +2605,11 @@
       </c>
       <c r="M46" s="19">
         <f t="shared" si="2"/>
-        <v>3986.1500000000005</v>
+        <v>4012.8600000000006</v>
       </c>
       <c r="N46" s="19">
         <f t="shared" si="2"/>
-        <v>4130.68</v>
+        <v>4320.68</v>
       </c>
       <c r="O46" s="19">
         <f t="shared" si="2"/>
@@ -2621,7 +2627,7 @@
       </c>
       <c r="P47" s="28">
         <f>SUM(D46:P46)</f>
-        <v>39551.300000000003</v>
+        <v>39768.01</v>
       </c>
       <c r="Q47" s="35">
         <f>IF(SUM(Q9:Q43)&gt;0, SUM(Q9:Q43),"")</f>
@@ -2634,7 +2640,7 @@
       </c>
       <c r="P48" s="41">
         <f>SUM(P47:Q47)</f>
-        <v>92996.3</v>
+        <v>93213.010000000009</v>
       </c>
       <c r="Q48" s="42"/>
     </row>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Combustível</t>
   </si>
@@ -516,7 +516,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -889,7 +917,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1080</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
@@ -913,7 +941,7 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1221.5999999999999</c:v>
+                  <c:v>1256.8800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4012.8600000000006</c:v>
@@ -922,13 +950,13 @@
                   <c:v>4320.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6317.1</c:v>
+                  <c:v>6329.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18445</c:v>
+                  <c:v>18925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,7 +1060,7 @@
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3573.74</c:v>
+                  <c:v>3609.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4012.8600000000006</c:v>
@@ -1041,13 +1069,13 @@
                   <c:v>4320.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6317.1</c:v>
+                  <c:v>6329.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53445</c:v>
+                  <c:v>53925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,11 +1091,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="307874432"/>
-        <c:axId val="307560832"/>
+        <c:axId val="358054528"/>
+        <c:axId val="354111872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307874432"/>
+        <c:axId val="358054528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1104,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307560832"/>
+        <c:crossAx val="354111872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307560832"/>
+        <c:axId val="354111872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1128,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="307874432"/>
+        <c:crossAx val="358054528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1201,7 +1229,7 @@
       <sheetData sheetId="11">
         <row r="10">
           <cell r="C10">
-            <v>53445</v>
+            <v>53925</v>
           </cell>
         </row>
       </sheetData>
@@ -1504,11 +1532,11 @@
   <dimension ref="C4:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1598,7 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D43)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="0"/>
@@ -1602,7 +1630,7 @@
       </c>
       <c r="L6" s="22">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="22">
         <f t="shared" si="0"/>
@@ -1614,7 +1642,7 @@
       </c>
       <c r="O6" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6" s="22">
         <f t="shared" si="0"/>
@@ -2182,8 +2210,8 @@
       <c r="C30" s="25">
         <v>44761</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>20</v>
+      <c r="D30" s="34">
+        <v>70</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
@@ -2194,15 +2222,15 @@
         <v>20</v>
       </c>
       <c r="K30" s="29"/>
-      <c r="L30" s="34" t="s">
-        <v>20</v>
+      <c r="L30" s="34">
+        <v>35.28</v>
       </c>
       <c r="M30" s="34" t="s">
         <v>20</v>
       </c>
       <c r="N30" s="29"/>
-      <c r="O30" s="34" t="s">
-        <v>20</v>
+      <c r="O30" s="34">
+        <v>12</v>
       </c>
       <c r="P30" s="29"/>
       <c r="Q30" s="30"/>
@@ -2416,24 +2444,24 @@
       <c r="C40" s="25">
         <v>44776</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
         <v>26.71</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N40" s="3">
         <v>190</v>
       </c>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="30"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="25"/>
@@ -2486,14 +2514,14 @@
       <c r="P43" s="29"/>
       <c r="Q43" s="30">
         <f>[1]CUST_Diário_M_Obra!$C$10-Q9</f>
-        <v>18445</v>
+        <v>18925</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="17">
         <f t="shared" ref="D44:Q44" si="1">IF(SUM(D12:D43)&gt;0, SUM(D12:D43),"")</f>
-        <v>1080</v>
+        <v>1150</v>
       </c>
       <c r="E44" s="17">
         <f t="shared" si="1"/>
@@ -2525,7 +2553,7 @@
       </c>
       <c r="L44" s="17">
         <f t="shared" si="1"/>
-        <v>1221.5999999999999</v>
+        <v>1256.8800000000001</v>
       </c>
       <c r="M44" s="17">
         <f t="shared" si="1"/>
@@ -2537,7 +2565,7 @@
       </c>
       <c r="O44" s="17">
         <f t="shared" si="1"/>
-        <v>6317.1</v>
+        <v>6329.1</v>
       </c>
       <c r="P44" s="17">
         <f t="shared" si="1"/>
@@ -2545,7 +2573,7 @@
       </c>
       <c r="Q44" s="17">
         <f t="shared" si="1"/>
-        <v>18445</v>
+        <v>18925</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.25">
@@ -2601,7 +2629,7 @@
       </c>
       <c r="L46" s="19">
         <f t="shared" si="2"/>
-        <v>3573.74</v>
+        <v>3609.02</v>
       </c>
       <c r="M46" s="19">
         <f t="shared" si="2"/>
@@ -2613,7 +2641,7 @@
       </c>
       <c r="O46" s="19">
         <f t="shared" si="2"/>
-        <v>6317.1</v>
+        <v>6329.1</v>
       </c>
       <c r="P46" s="19">
         <f t="shared" si="2"/>
@@ -2627,11 +2655,11 @@
       </c>
       <c r="P47" s="28">
         <f>SUM(D46:P46)</f>
-        <v>39768.01</v>
+        <v>39815.29</v>
       </c>
       <c r="Q47" s="35">
         <f>IF(SUM(Q9:Q43)&gt;0, SUM(Q9:Q43),"")</f>
-        <v>53445</v>
+        <v>53925</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2640,7 +2668,7 @@
       </c>
       <c r="P48" s="41">
         <f>SUM(P47:Q47)</f>
-        <v>93213.010000000009</v>
+        <v>93740.290000000008</v>
       </c>
       <c r="Q48" s="42"/>
     </row>
@@ -2652,82 +2680,90 @@
     <mergeCell ref="P48:Q48"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:Q30 D42:Q43">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Q35">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Q33">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Q31">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Q32">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:Q37 D39:Q40">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="D37:Q37 D39:Q39">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:Q34">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:Q38">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:Q41">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:Q40">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="20025" windowHeight="7605"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="20025" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Combustível</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>120,00 + 1228,35</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,917 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="154">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -917,7 +1830,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1150</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
@@ -956,7 +1869,7 @@
                   <c:v>868.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18925</c:v>
+                  <c:v>19750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1988,7 @@
                   <c:v>3853.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53925</c:v>
+                  <c:v>54750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,11 +2004,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="358054528"/>
-        <c:axId val="354111872"/>
+        <c:axId val="312269440"/>
+        <c:axId val="312152448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="358054528"/>
+        <c:axId val="312269440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +2017,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354111872"/>
+        <c:crossAx val="312152448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1112,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354111872"/>
+        <c:axId val="312152448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +2041,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="358054528"/>
+        <c:crossAx val="312269440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,9 +2140,9 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11">
-        <row r="10">
-          <cell r="C10">
-            <v>53925</v>
+        <row r="11">
+          <cell r="C11">
+            <v>54750</v>
           </cell>
         </row>
       </sheetData>
@@ -1532,11 +2445,11 @@
   <dimension ref="C4:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +2511,7 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D43)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="0"/>
@@ -2464,8 +3377,12 @@
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C41" s="25"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="25">
+        <v>44778</v>
+      </c>
+      <c r="D41" s="3">
+        <v>70</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2475,7 +3392,9 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="4"/>
@@ -2513,15 +3432,15 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
       <c r="Q43" s="30">
-        <f>[1]CUST_Diário_M_Obra!$C$10-Q9</f>
-        <v>18925</v>
+        <f>[1]CUST_Diário_M_Obra!$C$11-Q9</f>
+        <v>19750</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="17">
         <f t="shared" ref="D44:Q44" si="1">IF(SUM(D12:D43)&gt;0, SUM(D12:D43),"")</f>
-        <v>1150</v>
+        <v>1220</v>
       </c>
       <c r="E44" s="17">
         <f t="shared" si="1"/>
@@ -2573,7 +3492,7 @@
       </c>
       <c r="Q44" s="17">
         <f t="shared" si="1"/>
-        <v>18925</v>
+        <v>19750</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.25">
@@ -2659,7 +3578,7 @@
       </c>
       <c r="Q47" s="35">
         <f>IF(SUM(Q9:Q43)&gt;0, SUM(Q9:Q43),"")</f>
-        <v>53925</v>
+        <v>54750</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2668,7 +3587,7 @@
       </c>
       <c r="P48" s="41">
         <f>SUM(P47:Q47)</f>
-        <v>93740.290000000008</v>
+        <v>94565.290000000008</v>
       </c>
       <c r="Q48" s="42"/>
     </row>
@@ -2680,90 +3599,90 @@
     <mergeCell ref="P48:Q48"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:Q30 D42:Q43">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Q35">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Q33">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Q31">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Q32">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:Q37 D39:Q39">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:Q34">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:Q38">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:Q41">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:Q40">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Combustível</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>Ocorrências</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>120,00 + 1228,35</t>
   </si>
 </sst>
 </file>
@@ -435,12 +429,6 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -449,9 +437,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -515,753 +500,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="154">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -1848,7 +1100,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>302.37</c:v>
+                  <c:v>378.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>350</c:v>
@@ -1857,13 +1109,13 @@
                   <c:v>1256.8800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4012.8600000000006</c:v>
+                  <c:v>5871.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4320.68</c:v>
+                  <c:v>5804.0300000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6329.1</c:v>
+                  <c:v>6644.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>868.6</c:v>
@@ -1967,7 +1219,7 @@
                   <c:v>1419.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1992.43</c:v>
+                  <c:v>2068.9700000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2830</c:v>
@@ -1976,13 +1228,13 @@
                   <c:v>3609.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4012.8600000000006</c:v>
+                  <c:v>5871.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4320.68</c:v>
+                  <c:v>5804.0300000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6329.1</c:v>
+                  <c:v>6644.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3853.18</c:v>
@@ -2004,11 +1256,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="312269440"/>
-        <c:axId val="312152448"/>
+        <c:axId val="318175872"/>
+        <c:axId val="318513536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312269440"/>
+        <c:axId val="318175872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +1269,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312152448"/>
+        <c:crossAx val="318513536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312152448"/>
+        <c:axId val="318513536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +1293,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="312269440"/>
+        <c:crossAx val="318175872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2128,17 +1380,17 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
         <row r="11">
           <cell r="C11">
@@ -2146,9 +1398,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2445,11 +1697,11 @@
   <dimension ref="C4:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,1135 +1713,1135 @@
   <sheetData>
     <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="23"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <f t="shared" ref="D6:Q6" si="0">COUNT(D9,D12:D43)</f>
         <v>14</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K6" s="22">
+        <v>13</v>
+      </c>
+      <c r="K6" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N6" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N6" s="22">
+      <c r="P6" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O6" s="22">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="str">
+      <c r="C9" s="21" t="str">
         <f>D7</f>
         <v>18/04  a  18/06</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>1830</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>749.36</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>4123.8999999999996</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <v>2949.96</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <v>280</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <v>1419.8</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <v>1690.06</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <v>2480</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="13">
         <v>2352.14</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13">
         <v>2984.58</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="11">
         <v>35000</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <f>SUM(D9:Q9)</f>
         <v>55859.8</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>44730</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26">
         <v>491.06</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>44733</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="23">
         <v>70</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>33</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>44735</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26">
         <v>34</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>44736</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
         <v>350</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="25">
+      <c r="C16" s="22">
         <v>44737</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26">
         <v>6.9</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>44739</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="23">
         <v>100</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
         <v>5.99</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
         <v>148.9</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
         <v>12</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="1">
         <v>856.6</v>
       </c>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="25">
+      <c r="C18" s="22">
         <v>44740</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="26">
         <v>100</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26">
         <v>40</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29">
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26">
         <v>62.5</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29">
+      <c r="N18" s="26"/>
+      <c r="O18" s="26">
         <v>246.65</v>
       </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="25">
+      <c r="C19" s="22">
         <v>44741</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
+      <c r="D19" s="23"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
         <v>25</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>44742</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26">
         <v>5</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="25">
+      <c r="C21" s="22">
         <v>44743</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="23">
         <v>100</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
         <v>17.5</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
         <v>2864.43</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <v>4010.68</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="4"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <v>44744</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
         <v>33.5</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26">
         <v>36</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="25">
+      <c r="C23" s="22">
         <v>44746</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <v>100</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="31">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="28">
         <v>138.80000000000001</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
         <v>2779.2</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="4"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="25">
+      <c r="C24" s="22">
         <v>44747</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="26">
         <v>100</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26">
         <v>48.19</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29">
+      <c r="K24" s="26"/>
+      <c r="L24" s="26">
         <v>273.32</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="26">
         <v>578.72</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29">
+      <c r="N24" s="26"/>
+      <c r="O24" s="26">
         <v>147.36000000000001</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="25">
+      <c r="C25" s="22">
         <v>44748</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <v>130</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>19</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <v>3</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <v>20</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>44751</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="26">
         <v>100</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26">
         <v>420.7</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="26">
         <v>154.9</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29">
+      <c r="N26" s="26"/>
+      <c r="O26" s="26">
         <v>1612.3</v>
       </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>44753</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="24">
         <v>100</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
         <v>142</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>276</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
         <v>25.99</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
         <v>1467.79</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="4"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="25">
+      <c r="C28" s="22">
         <v>44757</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26">
         <v>142.5</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <v>44758</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
         <v>76.8</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <v>44761</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="31">
         <v>70</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="34">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="31">
+        <v>76.540000000000006</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="31">
         <v>35.28</v>
       </c>
-      <c r="M30" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="34">
+      <c r="M30" s="31">
+        <v>1633.7</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="31">
         <v>12</v>
       </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="30"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <v>44761</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
         <v>-148.61000000000001</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="4"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="25">
+      <c r="C32" s="22">
         <v>44762</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26">
         <v>35</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29">
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26">
         <v>7.5</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="26">
         <v>17.899999999999999</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="30"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="25">
+      <c r="C33" s="22">
         <v>44763</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
         <v>30.8</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
         <v>51.8</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="4"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="25">
+      <c r="C34" s="22">
         <v>44764</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26">
         <v>30</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29">
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26">
         <v>12</v>
       </c>
-      <c r="Q34" s="30"/>
+      <c r="Q34" s="27"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <v>44767</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>80</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1">
         <v>37.700000000000003</v>
       </c>
-      <c r="M35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="4"/>
+      <c r="M35" s="33">
+        <v>225</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="33">
+        <v>315</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="25">
+      <c r="C36" s="22">
         <v>44768</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26">
         <v>65.23</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="4"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="25">
+      <c r="C37" s="22">
         <v>44769</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1">
         <v>10.9</v>
       </c>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C38" s="25">
+      <c r="C38" s="22">
         <v>44771</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="26">
         <v>100</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="4"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="27"/>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C39" s="25">
+      <c r="C39" s="22">
         <v>44774</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1">
         <v>15</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1">
         <v>120</v>
       </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C40" s="25">
+      <c r="C40" s="22">
         <v>44776</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26">
         <v>26.71</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="26">
         <v>190</v>
       </c>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="4"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="27"/>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C41" s="25">
+      <c r="C41" s="22">
         <v>44778</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>70</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="4"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1">
+        <v>1483.35</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="25"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="4"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="27"/>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C43" s="25"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="30">
+      <c r="C43" s="22"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="2">
         <f>[1]CUST_Diário_M_Obra!$C$11-Q9</f>
         <v>19750</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C44" s="13"/>
-      <c r="D44" s="17">
+      <c r="C44" s="10"/>
+      <c r="D44" s="14">
         <f t="shared" ref="D44:Q44" si="1">IF(SUM(D12:D43)&gt;0, SUM(D12:D43),"")</f>
         <v>1220</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="14">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="14">
         <f t="shared" si="1"/>
         <v>387</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="14">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="H44" s="17" t="str">
+      <c r="H44" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I44" s="17" t="str">
+      <c r="I44" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="14">
         <f t="shared" si="1"/>
-        <v>302.37</v>
-      </c>
-      <c r="K44" s="17">
+        <v>378.91</v>
+      </c>
+      <c r="K44" s="14">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="14">
         <f t="shared" si="1"/>
         <v>1256.8800000000001</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="14">
         <f t="shared" si="1"/>
-        <v>4012.8600000000006</v>
-      </c>
-      <c r="N44" s="17">
+        <v>5871.56</v>
+      </c>
+      <c r="N44" s="14">
         <f t="shared" si="1"/>
-        <v>4320.68</v>
-      </c>
-      <c r="O44" s="17">
+        <v>5804.0300000000007</v>
+      </c>
+      <c r="O44" s="14">
         <f t="shared" si="1"/>
-        <v>6329.1</v>
-      </c>
-      <c r="P44" s="17">
+        <v>6644.1</v>
+      </c>
+      <c r="P44" s="14">
         <f t="shared" si="1"/>
         <v>868.6</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="14">
         <f t="shared" si="1"/>
         <v>19750</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="13"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="4"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="18">
+      <c r="C46" s="4"/>
+      <c r="D46" s="15">
         <f>IF(SUM(D9:D26)&gt;0, SUM(D9:D26),"")</f>
         <v>2630</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="16">
         <f t="shared" ref="E46:P46" si="2">IF(SUM(E9:E43)&gt;0, SUM(E9:E43),"")</f>
         <v>801.36</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="16">
         <f t="shared" si="2"/>
         <v>4510.8999999999996</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="16">
         <f t="shared" si="2"/>
         <v>3225.96</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="16">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="16">
         <f t="shared" si="2"/>
         <v>1419.8</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="16">
         <f t="shared" si="2"/>
-        <v>1992.43</v>
-      </c>
-      <c r="K46" s="19">
+        <v>2068.9700000000003</v>
+      </c>
+      <c r="K46" s="16">
         <f t="shared" si="2"/>
         <v>2830</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="16">
         <f t="shared" si="2"/>
         <v>3609.02</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="16">
         <f t="shared" si="2"/>
-        <v>4012.8600000000006</v>
-      </c>
-      <c r="N46" s="19">
+        <v>5871.56</v>
+      </c>
+      <c r="N46" s="16">
         <f t="shared" si="2"/>
-        <v>4320.68</v>
-      </c>
-      <c r="O46" s="19">
+        <v>5804.0300000000007</v>
+      </c>
+      <c r="O46" s="16">
         <f t="shared" si="2"/>
-        <v>6329.1</v>
-      </c>
-      <c r="P46" s="19">
+        <v>6644.1</v>
+      </c>
+      <c r="P46" s="16">
         <f t="shared" si="2"/>
         <v>3853.18</v>
       </c>
-      <c r="Q46" s="10"/>
+      <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P47" s="28">
+      <c r="P47" s="25">
         <f>SUM(D46:P46)</f>
-        <v>39815.29</v>
-      </c>
-      <c r="Q47" s="35">
+        <v>43548.880000000005</v>
+      </c>
+      <c r="Q47" s="32">
         <f>IF(SUM(Q9:Q43)&gt;0, SUM(Q9:Q43),"")</f>
         <v>54750</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O48" s="6" t="s">
+      <c r="O48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P48" s="41">
+      <c r="P48" s="38">
         <f>SUM(P47:Q47)</f>
-        <v>94565.290000000008</v>
-      </c>
-      <c r="Q48" s="42"/>
+        <v>98298.880000000005</v>
+      </c>
+      <c r="Q48" s="39"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3598,91 +2850,107 @@
     <mergeCell ref="D7:Q7"/>
     <mergeCell ref="P48:Q48"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12:Q30 D42:Q43">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="lessThan">
+  <conditionalFormatting sqref="D12:Q30 D43:Q43">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Q35">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Q33">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Q31">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Q32">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:Q37 D39:Q39">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:Q34">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:Q41">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:Q38">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:Q41">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:Q40">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:Q42">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:Q37">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:Q39">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Levantamento_custo.xlsx
+++ b/Levantamento_custo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="20025" windowHeight="7545"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="20025" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -482,6 +482,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,174 +509,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -1106,7 +952,7 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1256.8800000000001</c:v>
+                  <c:v>765.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5871.56</c:v>
@@ -1225,7 +1071,7 @@
                   <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3609.02</c:v>
+                  <c:v>3117.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5871.56</c:v>
@@ -1256,11 +1102,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="318175872"/>
-        <c:axId val="318513536"/>
+        <c:axId val="319482880"/>
+        <c:axId val="319365888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="318175872"/>
+        <c:axId val="319482880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1115,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318513536"/>
+        <c:crossAx val="319365888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318513536"/>
+        <c:axId val="319365888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1139,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="318175872"/>
+        <c:crossAx val="319482880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,17 +1226,17 @@
       <sheetName val="Plan1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="11">
           <cell r="C11">
@@ -1398,9 +1244,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1697,11 +1543,11 @@
   <dimension ref="C4:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,46 +1560,46 @@
     <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="20"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1795,7 +1641,7 @@
       </c>
       <c r="L6" s="19">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="19">
         <f t="shared" si="0"/>
@@ -1822,22 +1668,22 @@
       <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
@@ -1920,22 +1766,22 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" s="22">
@@ -1949,9 +1795,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="26">
-        <v>491.06</v>
-      </c>
+      <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
@@ -2724,7 +2568,7 @@
       </c>
       <c r="L44" s="14">
         <f t="shared" si="1"/>
-        <v>1256.8800000000001</v>
+        <v>765.81999999999994</v>
       </c>
       <c r="M44" s="14">
         <f t="shared" si="1"/>
@@ -2800,7 +2644,7 @@
       </c>
       <c r="L46" s="16">
         <f t="shared" si="2"/>
-        <v>3609.02</v>
+        <v>3117.96</v>
       </c>
       <c r="M46" s="16">
         <f t="shared" si="2"/>
@@ -2826,7 +2670,7 @@
       </c>
       <c r="P47" s="25">
         <f>SUM(D46:P46)</f>
-        <v>43548.880000000005</v>
+        <v>43057.82</v>
       </c>
       <c r="Q47" s="32">
         <f>IF(SUM(Q9:Q43)&gt;0, SUM(Q9:Q43),"")</f>
@@ -2837,11 +2681,11 @@
       <c r="O48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P48" s="38">
+      <c r="P48" s="41">
         <f>SUM(P47:Q47)</f>
-        <v>98298.880000000005</v>
-      </c>
-      <c r="Q48" s="39"/>
+        <v>97807.82</v>
+      </c>
+      <c r="Q48" s="42"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2851,106 +2695,106 @@
     <mergeCell ref="P48:Q48"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:Q30 D43:Q43">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Q35">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Q33">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Q31">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Q32">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:Q34">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:Q41">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:Q38">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:Q40">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:Q42">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:Q37">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:Q39">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
